--- a/策划案/设计文档/经济平衡表.xlsx
+++ b/策划案/设计文档/经济平衡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29685" windowHeight="11775"/>
+    <workbookView windowWidth="26430" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="数值基础框架" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-老手挑战速度</t>
+老手</t>
         </r>
       </text>
     </comment>
@@ -173,8 +173,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-新手上手速度
-</t>
+新手</t>
         </r>
       </text>
     </comment>
@@ -1230,14 +1229,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1256,6 +1252,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1285,22 +1284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,88 +1293,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1476,7 @@
             <c:numRef>
               <c:f>参考!$M$37:$M$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>0.36</c:v>
@@ -1716,7 +1655,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1792,6 +1731,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{3cf997f7-7032-445e-ad6e-6ccb1b93de55}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1908,7 +1852,7 @@
             <c:numRef>
               <c:f>参考!$M$73:$M$102</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
                   <c:v>0.24</c:v>
@@ -2087,7 +2031,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2163,6 +2107,11 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext uri="{0b15fc19-7d7d-44ad-8c2d-2c3a37ce22c3}">
+        <chartProps xmlns="https://web.wps.cn/et/2018/main" chartId="{4d90d22e-5002-4673-bb23-f6c6141fc38d}"/>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3603,8 +3552,8 @@
   <sheetPr/>
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3672,21 +3621,21 @@
       <c r="H4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="35"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="31"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="1" t="s">
@@ -3716,37 +3665,37 @@
       <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="30" t="s">
+      <c r="K5" s="22" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="30" t="s">
+      <c r="M5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="31" t="s">
+      <c r="N5" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="12" t="s">
         <v>17</v>
       </c>
       <c r="T5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3757,15 +3706,15 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" ref="D6:D65" si="0">B6*30</f>
         <v>30</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:E65" si="1">$B6*30/60</f>
         <v>0.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F65" si="2">$D6</f>
         <v>30</v>
       </c>
@@ -3777,21 +3726,21 @@
         <f t="shared" ref="H6:H65" si="3">$F6/5</f>
         <v>6</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="23">
         <v>0.36</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f>100*$I6*$H6</f>
         <v>216</v>
       </c>
-      <c r="K6" s="33">
+      <c r="K6" s="24">
         <f>$J6+$G6</f>
         <v>466</v>
       </c>
-      <c r="L6" s="22">
+      <c r="L6" s="25">
         <v>0.24</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="24">
         <f>L6*H6*500</f>
         <v>720</v>
       </c>
@@ -3799,29 +3748,29 @@
         <f t="shared" ref="N6:N65" si="4">$D6/3</f>
         <v>10</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="23">
         <v>0.36</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <f>100*$O6*$H6</f>
         <v>216</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="24">
         <f>$P6+$G6</f>
         <v>466</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="25">
         <v>0.24</v>
       </c>
-      <c r="S6" s="38">
+      <c r="S6" s="12">
         <f>R6*N6*500</f>
         <v>1200</v>
       </c>
-      <c r="T6" s="39">
+      <c r="T6" s="15">
         <f>200*$I6*$N6</f>
         <v>720</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="22">
         <f>R6*N6*1000</f>
         <v>2400</v>
       </c>
@@ -3831,18 +3780,18 @@
       <c r="B7" s="17">
         <v>2</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="10">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
@@ -3850,74 +3799,74 @@
         <f t="shared" ref="G7:G38" si="5">100+$B7*30*$B$3</f>
         <v>400</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="15">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="26">
         <v>0.36</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="10">
         <f>100*$I7*(H7-H6)+J6</f>
         <v>432</v>
       </c>
-      <c r="K7" s="30">
+      <c r="K7" s="22">
         <f t="shared" ref="K7:K38" si="6">$J7+$G7</f>
         <v>832</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="27">
         <v>0.24</v>
       </c>
-      <c r="M7" s="30">
+      <c r="M7" s="22">
         <f>L7*(H7-H6)*500+M6</f>
         <v>1440</v>
       </c>
-      <c r="N7" s="21">
+      <c r="N7" s="15">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="26">
         <v>0.28</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="10">
         <f t="shared" ref="P7:P65" si="7">100*$I7*(N7-N6)+P6</f>
         <v>576</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="22">
         <f t="shared" ref="Q7:Q38" si="8">$P7+$G7</f>
         <v>976</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="27">
         <v>0.28</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="10">
         <f t="shared" ref="S7:S65" si="9">R7*(N7-N6)*500+S6</f>
         <v>2600</v>
       </c>
-      <c r="T7" s="42">
+      <c r="T7" s="16">
         <f>200*$I7*(N7-N6)+T6</f>
         <v>1440</v>
       </c>
-      <c r="U7" s="43">
+      <c r="U7" s="24">
         <f>R7*(N7-N6)*1000+$U6</f>
         <v>5200</v>
       </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="22"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="1">
         <v>3</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
@@ -3929,21 +3878,21 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="23">
         <v>0.28</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" ref="J8:J39" si="10">100*$I8*(H8-H7)+J7</f>
         <v>600</v>
       </c>
-      <c r="K8" s="33">
+      <c r="K8" s="24">
         <f t="shared" si="6"/>
         <v>1150</v>
       </c>
-      <c r="L8" s="22">
+      <c r="L8" s="25">
         <v>0.28</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="24">
         <f>L8*(H8-H7)*500+M7</f>
         <v>2280</v>
       </c>
@@ -3951,104 +3900,104 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="23">
         <v>0.24</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f t="shared" si="7"/>
         <v>856</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="24">
         <f t="shared" si="8"/>
         <v>1406</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="25">
         <v>0.32</v>
       </c>
-      <c r="S8" s="38">
+      <c r="S8" s="12">
         <f t="shared" si="9"/>
         <v>4200</v>
       </c>
-      <c r="T8" s="44">
+      <c r="T8" s="16">
         <f>200*$I8*(N8-N7)+T7</f>
         <v>2000</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="24">
         <f>R8*(N8-N7)*1000+$U7</f>
         <v>8400</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="1:21">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20">
         <v>4</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27">
+      <c r="C9" s="20"/>
+      <c r="D9" s="11">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="11">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="11">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="20">
         <f t="shared" si="5"/>
         <v>700</v>
       </c>
-      <c r="H9" s="28">
+      <c r="H9" s="19">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="28">
         <v>0.28</v>
       </c>
-      <c r="J9" s="27">
+      <c r="J9" s="11">
         <f t="shared" si="10"/>
         <v>768</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="29">
         <f t="shared" si="6"/>
         <v>1468</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="30">
         <v>0.28</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="29">
         <f>L9*(H9-H8)*500+M8</f>
         <v>3120</v>
       </c>
-      <c r="N9" s="28">
+      <c r="N9" s="19">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="28">
         <v>0.23</v>
       </c>
-      <c r="P9" s="27">
+      <c r="P9" s="11">
         <f t="shared" si="7"/>
         <v>1136</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="29">
         <f t="shared" si="8"/>
         <v>1836</v>
       </c>
-      <c r="R9" s="24">
+      <c r="R9" s="30">
         <v>0.36</v>
       </c>
-      <c r="S9" s="45">
+      <c r="S9" s="11">
         <f t="shared" si="9"/>
         <v>6000</v>
       </c>
-      <c r="T9" s="42">
+      <c r="T9" s="16">
         <f t="shared" ref="T9:T30" si="11">200*$I9*(N9-N8)+T8</f>
         <v>2560</v>
       </c>
-      <c r="U9" s="43">
+      <c r="U9" s="24">
         <f>R9*(N9-N8)*1000+$U8</f>
         <v>12000</v>
       </c>
@@ -4058,18 +4007,18 @@
       <c r="B10" s="17">
         <v>5</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>3</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="10">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
@@ -4077,74 +4026,74 @@
         <f t="shared" si="5"/>
         <v>850</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="26">
         <v>0.24</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="10">
         <f t="shared" si="10"/>
         <v>912</v>
       </c>
-      <c r="K10" s="30">
+      <c r="K10" s="22">
         <f t="shared" si="6"/>
         <v>1762</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="27">
         <v>0.32</v>
       </c>
-      <c r="M10" s="30">
+      <c r="M10" s="22">
         <f>L10*(H10-H9)*500+M9</f>
         <v>4080</v>
       </c>
-      <c r="N10" s="21">
+      <c r="N10" s="15">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="26">
         <v>0.21</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="10">
         <f t="shared" si="7"/>
         <v>1376</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="22">
         <f t="shared" si="8"/>
         <v>2226</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="27">
         <v>0.39</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="10">
         <f t="shared" si="9"/>
         <v>7950</v>
       </c>
-      <c r="T10" s="44">
+      <c r="T10" s="16">
         <f t="shared" si="11"/>
         <v>3040</v>
       </c>
-      <c r="U10" s="43">
+      <c r="U10" s="24">
         <f t="shared" ref="U10:U28" si="12">R10*(N10-N9)*1000+$U9</f>
         <v>15900</v>
       </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="22"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1">
         <v>6</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
@@ -4156,21 +4105,21 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="23">
         <v>0.24</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <f t="shared" si="10"/>
         <v>1056</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="24">
         <f t="shared" si="6"/>
         <v>2056</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="25">
         <v>0.32</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="24">
         <f t="shared" ref="M11:M42" si="13">L11*(H11-H10)*500+M10</f>
         <v>5040</v>
       </c>
@@ -4178,48 +4127,48 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="23">
         <v>0.2</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <f t="shared" si="7"/>
         <v>1616</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="24">
         <f t="shared" si="8"/>
         <v>2616</v>
       </c>
-      <c r="R11" s="22">
+      <c r="R11" s="25">
         <v>0.41</v>
       </c>
-      <c r="S11" s="38">
+      <c r="S11" s="12">
         <f t="shared" si="9"/>
         <v>10000</v>
       </c>
-      <c r="T11" s="42">
+      <c r="T11" s="16">
         <f t="shared" si="11"/>
         <v>3520</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="24">
         <f t="shared" si="12"/>
         <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:21">
-      <c r="A12" s="22"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
@@ -4231,21 +4180,21 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="23">
         <v>0.23</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <f t="shared" si="10"/>
         <v>1194</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="24">
         <f t="shared" si="6"/>
         <v>2344</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="25">
         <v>0.36</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="24">
         <f t="shared" si="13"/>
         <v>6120</v>
       </c>
@@ -4253,104 +4202,104 @@
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="23">
         <v>0.2</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <f t="shared" si="7"/>
         <v>1846</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="24">
         <f t="shared" si="8"/>
         <v>2996</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="25">
         <v>0.44</v>
       </c>
-      <c r="S12" s="38">
+      <c r="S12" s="12">
         <f t="shared" si="9"/>
         <v>12200</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="16">
         <f t="shared" si="11"/>
         <v>3980</v>
       </c>
-      <c r="U12" s="43">
+      <c r="U12" s="24">
         <f t="shared" si="12"/>
         <v>24400</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" spans="1:21">
-      <c r="A13" s="24"/>
-      <c r="B13" s="25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20">
         <v>8</v>
       </c>
-      <c r="C13" s="26"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="11">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="20">
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="H13" s="28">
+      <c r="H13" s="19">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="28">
         <v>0.23</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="11">
         <f t="shared" si="10"/>
         <v>1332</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="29">
         <f t="shared" si="6"/>
         <v>2632</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="30">
         <v>0.39</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="29">
         <f t="shared" si="13"/>
         <v>7290</v>
       </c>
-      <c r="N13" s="28">
+      <c r="N13" s="19">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="28">
         <v>0.19</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="11">
         <f t="shared" si="7"/>
         <v>2076</v>
       </c>
-      <c r="Q13" s="34">
+      <c r="Q13" s="29">
         <f t="shared" si="8"/>
         <v>3376</v>
       </c>
-      <c r="R13" s="24">
+      <c r="R13" s="30">
         <v>0.46</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="11">
         <f t="shared" si="9"/>
         <v>14500</v>
       </c>
-      <c r="T13" s="42">
+      <c r="T13" s="16">
         <f t="shared" si="11"/>
         <v>4440</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="24">
         <f t="shared" si="12"/>
         <v>29000</v>
       </c>
@@ -4360,18 +4309,18 @@
       <c r="B14" s="17">
         <v>9</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>4</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="10">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="10">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
@@ -4379,74 +4328,74 @@
         <f t="shared" si="5"/>
         <v>1450</v>
       </c>
-      <c r="H14" s="21">
+      <c r="H14" s="15">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="I14" s="20">
+      <c r="I14" s="26">
         <v>0.21</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="10">
         <f t="shared" si="10"/>
         <v>1458</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="22">
         <f t="shared" si="6"/>
         <v>2908</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="27">
         <v>0.39</v>
       </c>
-      <c r="M14" s="30">
+      <c r="M14" s="22">
         <f t="shared" si="13"/>
         <v>8460</v>
       </c>
-      <c r="N14" s="21">
+      <c r="N14" s="15">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="26">
         <v>0.18</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="10">
         <f t="shared" si="7"/>
         <v>2286</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="22">
         <f t="shared" si="8"/>
         <v>3736</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R14" s="27">
         <v>0.48</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="10">
         <f t="shared" si="9"/>
         <v>16900</v>
       </c>
-      <c r="T14" s="44">
+      <c r="T14" s="16">
         <f t="shared" si="11"/>
         <v>4860</v>
       </c>
-      <c r="U14" s="43">
+      <c r="U14" s="24">
         <f t="shared" si="12"/>
         <v>33800</v>
       </c>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="22"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1">
         <v>10</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
@@ -4458,21 +4407,21 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="23">
         <v>0.2</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <f t="shared" si="10"/>
         <v>1578</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="24">
         <f t="shared" si="6"/>
         <v>3178</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="25">
         <v>0.41</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="24">
         <f t="shared" si="13"/>
         <v>9690</v>
       </c>
@@ -4480,48 +4429,48 @@
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="23">
         <v>0.18</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <f t="shared" si="7"/>
         <v>2486</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="24">
         <f t="shared" si="8"/>
         <v>4086</v>
       </c>
-      <c r="R15" s="22">
+      <c r="R15" s="25">
         <v>0.49</v>
       </c>
-      <c r="S15" s="38">
+      <c r="S15" s="12">
         <f t="shared" si="9"/>
         <v>19350</v>
       </c>
-      <c r="T15" s="42">
+      <c r="T15" s="16">
         <f t="shared" si="11"/>
         <v>5260</v>
       </c>
-      <c r="U15" s="43">
+      <c r="U15" s="24">
         <f t="shared" si="12"/>
         <v>38700</v>
       </c>
     </row>
     <row r="16" spans="1:21">
-      <c r="A16" s="22"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1">
         <v>11</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="1"/>
       <c r="D16" s="2">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
@@ -4533,21 +4482,21 @@
         <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="23">
         <v>0.2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <f t="shared" si="10"/>
         <v>1698</v>
       </c>
-      <c r="K16" s="33">
+      <c r="K16" s="24">
         <f t="shared" si="6"/>
         <v>3448</v>
       </c>
-      <c r="L16" s="22">
+      <c r="L16" s="25">
         <v>0.41</v>
       </c>
-      <c r="M16" s="33">
+      <c r="M16" s="24">
         <f t="shared" si="13"/>
         <v>10920</v>
       </c>
@@ -4555,48 +4504,48 @@
         <f t="shared" si="4"/>
         <v>110</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="23">
         <v>0.18</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <f t="shared" si="7"/>
         <v>2686</v>
       </c>
-      <c r="Q16" s="33">
+      <c r="Q16" s="24">
         <f t="shared" si="8"/>
         <v>4436</v>
       </c>
-      <c r="R16" s="22">
+      <c r="R16" s="25">
         <v>0.5</v>
       </c>
-      <c r="S16" s="38">
+      <c r="S16" s="12">
         <f t="shared" si="9"/>
         <v>21850</v>
       </c>
-      <c r="T16" s="44">
+      <c r="T16" s="16">
         <f t="shared" si="11"/>
         <v>5660</v>
       </c>
-      <c r="U16" s="43">
+      <c r="U16" s="24">
         <f t="shared" si="12"/>
         <v>43700</v>
       </c>
     </row>
     <row r="17" spans="1:21">
-      <c r="A17" s="22"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1">
         <v>12</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="2">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
@@ -4608,21 +4557,21 @@
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="23">
         <v>0.2</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f t="shared" si="10"/>
         <v>1818</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="24">
         <f t="shared" si="6"/>
         <v>3718</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="25">
         <v>0.44</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="24">
         <f t="shared" si="13"/>
         <v>12240</v>
       </c>
@@ -4630,104 +4579,104 @@
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="23">
         <v>0.17</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <f t="shared" si="7"/>
         <v>2886</v>
       </c>
-      <c r="Q17" s="33">
+      <c r="Q17" s="24">
         <f t="shared" si="8"/>
         <v>4786</v>
       </c>
-      <c r="R17" s="22">
+      <c r="R17" s="25">
         <v>0.51</v>
       </c>
-      <c r="S17" s="38">
+      <c r="S17" s="12">
         <f t="shared" si="9"/>
         <v>24400</v>
       </c>
-      <c r="T17" s="42">
+      <c r="T17" s="16">
         <f t="shared" si="11"/>
         <v>6060</v>
       </c>
-      <c r="U17" s="43">
+      <c r="U17" s="24">
         <f t="shared" si="12"/>
         <v>48800</v>
       </c>
     </row>
     <row r="18" s="11" customFormat="1" spans="1:21">
-      <c r="A18" s="24"/>
-      <c r="B18" s="25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="20">
         <v>13</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="11">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="11">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="11">
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="20">
         <f t="shared" si="5"/>
         <v>2050</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="19">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="28">
         <v>0.2</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="11">
         <f t="shared" si="10"/>
         <v>1938</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="29">
         <f t="shared" si="6"/>
         <v>3988</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="30">
         <v>0.46</v>
       </c>
-      <c r="M18" s="34">
+      <c r="M18" s="29">
         <f t="shared" si="13"/>
         <v>13620</v>
       </c>
-      <c r="N18" s="28">
+      <c r="N18" s="19">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="28">
         <v>0.17</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="11">
         <f t="shared" si="7"/>
         <v>3086</v>
       </c>
-      <c r="Q18" s="34">
+      <c r="Q18" s="29">
         <f t="shared" si="8"/>
         <v>5136</v>
       </c>
-      <c r="R18" s="24">
+      <c r="R18" s="30">
         <v>0.51</v>
       </c>
-      <c r="S18" s="45">
+      <c r="S18" s="11">
         <f t="shared" si="9"/>
         <v>26950</v>
       </c>
-      <c r="T18" s="44">
+      <c r="T18" s="16">
         <f t="shared" si="11"/>
         <v>6460</v>
       </c>
-      <c r="U18" s="43">
+      <c r="U18" s="24">
         <f t="shared" si="12"/>
         <v>53900</v>
       </c>
@@ -4737,18 +4686,18 @@
       <c r="B19" s="17">
         <v>14</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>5</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="10">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="10">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
@@ -4756,74 +4705,74 @@
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
-      <c r="H19" s="21">
+      <c r="H19" s="15">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="I19" s="20">
+      <c r="I19" s="26">
         <v>0.19</v>
       </c>
-      <c r="J19" s="20">
+      <c r="J19" s="10">
         <f t="shared" si="10"/>
         <v>2052</v>
       </c>
-      <c r="K19" s="30">
+      <c r="K19" s="22">
         <f t="shared" si="6"/>
         <v>4252</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="27">
         <v>0.46</v>
       </c>
-      <c r="M19" s="30">
+      <c r="M19" s="22">
         <f t="shared" si="13"/>
         <v>15000</v>
       </c>
-      <c r="N19" s="21">
+      <c r="N19" s="15">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="26">
         <v>0.17</v>
       </c>
-      <c r="P19" s="20">
+      <c r="P19" s="10">
         <f t="shared" si="7"/>
         <v>3276</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="Q19" s="22">
         <f t="shared" si="8"/>
         <v>5476</v>
       </c>
-      <c r="R19" s="15">
+      <c r="R19" s="27">
         <v>0.51</v>
       </c>
-      <c r="S19" s="41">
+      <c r="S19" s="10">
         <f t="shared" si="9"/>
         <v>29500</v>
       </c>
-      <c r="T19" s="42">
+      <c r="T19" s="16">
         <f t="shared" si="11"/>
         <v>6840</v>
       </c>
-      <c r="U19" s="43">
+      <c r="U19" s="24">
         <f t="shared" si="12"/>
         <v>59000</v>
       </c>
     </row>
     <row r="20" spans="1:21">
-      <c r="A20" s="22"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1">
         <v>15</v>
       </c>
-      <c r="C20" s="23"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="2">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
@@ -4835,21 +4784,21 @@
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="23">
         <v>0.18</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <f t="shared" si="10"/>
         <v>2160</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="24">
         <f t="shared" si="6"/>
         <v>4510</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="25">
         <v>0.48</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M20" s="24">
         <f t="shared" si="13"/>
         <v>16440</v>
       </c>
@@ -4857,48 +4806,48 @@
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="23">
         <v>0.17</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="2">
         <f t="shared" si="7"/>
         <v>3456</v>
       </c>
-      <c r="Q20" s="33">
+      <c r="Q20" s="24">
         <f t="shared" si="8"/>
         <v>5806</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="25">
         <v>0.51</v>
       </c>
-      <c r="S20" s="38">
+      <c r="S20" s="12">
         <f t="shared" si="9"/>
         <v>32050</v>
       </c>
-      <c r="T20" s="44">
+      <c r="T20" s="16">
         <f t="shared" si="11"/>
         <v>7200</v>
       </c>
-      <c r="U20" s="43">
+      <c r="U20" s="24">
         <f t="shared" si="12"/>
         <v>64100</v>
       </c>
     </row>
     <row r="21" spans="1:21">
-      <c r="A21" s="22"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1">
         <v>16</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="2">
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
@@ -4910,21 +4859,21 @@
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="23">
         <v>0.18</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <f t="shared" si="10"/>
         <v>2268</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="24">
         <f t="shared" si="6"/>
         <v>4768</v>
       </c>
-      <c r="L21" s="22">
+      <c r="L21" s="25">
         <v>0.48</v>
       </c>
-      <c r="M21" s="33">
+      <c r="M21" s="24">
         <f t="shared" si="13"/>
         <v>17880</v>
       </c>
@@ -4932,48 +4881,48 @@
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="23">
         <v>0.16</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="2">
         <f t="shared" si="7"/>
         <v>3636</v>
       </c>
-      <c r="Q21" s="33">
+      <c r="Q21" s="24">
         <f t="shared" si="8"/>
         <v>6136</v>
       </c>
-      <c r="R21" s="22">
+      <c r="R21" s="25">
         <v>0.5</v>
       </c>
-      <c r="S21" s="38">
+      <c r="S21" s="12">
         <f t="shared" si="9"/>
         <v>34550</v>
       </c>
-      <c r="T21" s="42">
+      <c r="T21" s="16">
         <f t="shared" si="11"/>
         <v>7560</v>
       </c>
-      <c r="U21" s="43">
+      <c r="U21" s="24">
         <f t="shared" si="12"/>
         <v>69100</v>
       </c>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="22"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1">
         <v>17</v>
       </c>
-      <c r="C22" s="23"/>
+      <c r="C22" s="1"/>
       <c r="D22" s="2">
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="2"/>
         <v>510</v>
       </c>
@@ -4985,21 +4934,21 @@
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="23">
         <v>0.18</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <f t="shared" si="10"/>
         <v>2376</v>
       </c>
-      <c r="K22" s="33">
+      <c r="K22" s="24">
         <f t="shared" si="6"/>
         <v>5026</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="25">
         <v>0.49</v>
       </c>
-      <c r="M22" s="33">
+      <c r="M22" s="24">
         <f t="shared" si="13"/>
         <v>19350</v>
       </c>
@@ -5007,48 +4956,48 @@
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="23">
         <v>0.16</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="2">
         <f t="shared" si="7"/>
         <v>3816</v>
       </c>
-      <c r="Q22" s="33">
+      <c r="Q22" s="24">
         <f t="shared" si="8"/>
         <v>6466</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="25">
         <v>0.5</v>
       </c>
-      <c r="S22" s="38">
+      <c r="S22" s="12">
         <f t="shared" si="9"/>
         <v>37050</v>
       </c>
-      <c r="T22" s="44">
+      <c r="T22" s="16">
         <f t="shared" si="11"/>
         <v>7920</v>
       </c>
-      <c r="U22" s="43">
+      <c r="U22" s="24">
         <f t="shared" si="12"/>
         <v>74100</v>
       </c>
     </row>
     <row r="23" spans="1:21">
-      <c r="A23" s="22"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="1">
         <v>18</v>
       </c>
-      <c r="C23" s="23"/>
+      <c r="C23" s="1"/>
       <c r="D23" s="2">
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
@@ -5060,21 +5009,21 @@
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="23">
         <v>0.18</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <f t="shared" si="10"/>
         <v>2484</v>
       </c>
-      <c r="K23" s="33">
+      <c r="K23" s="24">
         <f t="shared" si="6"/>
         <v>5284</v>
       </c>
-      <c r="L23" s="22">
+      <c r="L23" s="25">
         <v>0.5</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="24">
         <f t="shared" si="13"/>
         <v>20850</v>
       </c>
@@ -5082,104 +5031,104 @@
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="23">
         <v>0.16</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="2">
         <f t="shared" si="7"/>
         <v>3996</v>
       </c>
-      <c r="Q23" s="33">
+      <c r="Q23" s="24">
         <f t="shared" si="8"/>
         <v>6796</v>
       </c>
-      <c r="R23" s="22">
+      <c r="R23" s="25">
         <v>0.48</v>
       </c>
-      <c r="S23" s="38">
+      <c r="S23" s="12">
         <f t="shared" si="9"/>
         <v>39450</v>
       </c>
-      <c r="T23" s="42">
+      <c r="T23" s="16">
         <f t="shared" si="11"/>
         <v>8280</v>
       </c>
-      <c r="U23" s="43">
+      <c r="U23" s="24">
         <f t="shared" si="12"/>
         <v>78900</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="1:21">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20">
         <v>19</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="11">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="11">
         <f t="shared" si="2"/>
         <v>570</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="20">
         <f t="shared" si="5"/>
         <v>2950</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="19">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="28">
         <v>0.18</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="11">
         <f t="shared" si="10"/>
         <v>2592</v>
       </c>
-      <c r="K24" s="34">
+      <c r="K24" s="29">
         <f t="shared" si="6"/>
         <v>5542</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="30">
         <v>0.5</v>
       </c>
-      <c r="M24" s="34">
+      <c r="M24" s="29">
         <f t="shared" si="13"/>
         <v>22350</v>
       </c>
-      <c r="N24" s="28">
+      <c r="N24" s="19">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="28">
         <v>0.16</v>
       </c>
-      <c r="P24" s="27">
+      <c r="P24" s="11">
         <f t="shared" si="7"/>
         <v>4176</v>
       </c>
-      <c r="Q24" s="34">
+      <c r="Q24" s="29">
         <f t="shared" si="8"/>
         <v>7126</v>
       </c>
-      <c r="R24" s="24">
+      <c r="R24" s="30">
         <v>0.47</v>
       </c>
-      <c r="S24" s="45">
+      <c r="S24" s="11">
         <f t="shared" si="9"/>
         <v>41800</v>
       </c>
-      <c r="T24" s="44">
+      <c r="T24" s="16">
         <f t="shared" si="11"/>
         <v>8640</v>
       </c>
-      <c r="U24" s="43">
+      <c r="U24" s="24">
         <f t="shared" si="12"/>
         <v>83600</v>
       </c>
@@ -5189,18 +5138,18 @@
       <c r="B25" s="17">
         <v>20</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>6</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="10">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="10">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
@@ -5208,74 +5157,74 @@
         <f t="shared" si="5"/>
         <v>3100</v>
       </c>
-      <c r="H25" s="21">
+      <c r="H25" s="15">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="I25" s="20">
+      <c r="I25" s="26">
         <v>0.17</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="10">
         <f t="shared" si="10"/>
         <v>2694</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="22">
         <f t="shared" si="6"/>
         <v>5794</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="27">
         <v>0.51</v>
       </c>
-      <c r="M25" s="30">
+      <c r="M25" s="22">
         <f t="shared" si="13"/>
         <v>23880</v>
       </c>
-      <c r="N25" s="21">
+      <c r="N25" s="15">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="26">
         <v>0.16</v>
       </c>
-      <c r="P25" s="20">
+      <c r="P25" s="10">
         <f t="shared" si="7"/>
         <v>4346</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="Q25" s="22">
         <f t="shared" si="8"/>
         <v>7446</v>
       </c>
-      <c r="R25" s="15">
+      <c r="R25" s="27">
         <v>0.45</v>
       </c>
-      <c r="S25" s="41">
+      <c r="S25" s="10">
         <f t="shared" si="9"/>
         <v>44050</v>
       </c>
-      <c r="T25" s="42">
+      <c r="T25" s="16">
         <f t="shared" si="11"/>
         <v>8980</v>
       </c>
-      <c r="U25" s="43">
+      <c r="U25" s="24">
         <f t="shared" si="12"/>
         <v>88100</v>
       </c>
     </row>
     <row r="26" spans="1:21">
-      <c r="A26" s="22"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="1">
         <v>21</v>
       </c>
-      <c r="C26" s="23"/>
+      <c r="C26" s="1"/>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
@@ -5287,21 +5236,21 @@
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="23">
         <v>0.17</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <f t="shared" si="10"/>
         <v>2796</v>
       </c>
-      <c r="K26" s="33">
+      <c r="K26" s="24">
         <f t="shared" si="6"/>
         <v>6046</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="25">
         <v>0.51</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="24">
         <f t="shared" si="13"/>
         <v>25410</v>
       </c>
@@ -5309,48 +5258,48 @@
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="23">
         <v>0.16</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="2">
         <f t="shared" si="7"/>
         <v>4516</v>
       </c>
-      <c r="Q26" s="33">
+      <c r="Q26" s="24">
         <f t="shared" si="8"/>
         <v>7766</v>
       </c>
-      <c r="R26" s="22">
+      <c r="R26" s="25">
         <v>0.43</v>
       </c>
-      <c r="S26" s="38">
+      <c r="S26" s="12">
         <f t="shared" si="9"/>
         <v>46200</v>
       </c>
-      <c r="T26" s="44">
+      <c r="T26" s="16">
         <f t="shared" si="11"/>
         <v>9320</v>
       </c>
-      <c r="U26" s="43">
+      <c r="U26" s="24">
         <f t="shared" si="12"/>
         <v>92400</v>
       </c>
     </row>
     <row r="27" spans="1:21">
-      <c r="A27" s="22"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="1">
         <v>22</v>
       </c>
-      <c r="C27" s="23"/>
+      <c r="C27" s="1"/>
       <c r="D27" s="2">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
@@ -5362,21 +5311,21 @@
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="23">
         <v>0.17</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <f t="shared" si="10"/>
         <v>2898</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="24">
         <f t="shared" si="6"/>
         <v>6298</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L27" s="25">
         <v>0.51</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="24">
         <f t="shared" si="13"/>
         <v>26940</v>
       </c>
@@ -5384,48 +5333,48 @@
         <f t="shared" si="4"/>
         <v>220</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="23">
         <v>0.15</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="2">
         <f t="shared" si="7"/>
         <v>4686</v>
       </c>
-      <c r="Q27" s="33">
+      <c r="Q27" s="24">
         <f t="shared" si="8"/>
         <v>8086</v>
       </c>
-      <c r="R27" s="22">
+      <c r="R27" s="25">
         <v>0.4</v>
       </c>
-      <c r="S27" s="38">
+      <c r="S27" s="12">
         <f t="shared" si="9"/>
         <v>48200</v>
       </c>
-      <c r="T27" s="42">
+      <c r="T27" s="16">
         <f t="shared" si="11"/>
         <v>9660</v>
       </c>
-      <c r="U27" s="43">
+      <c r="U27" s="24">
         <f t="shared" si="12"/>
         <v>96400</v>
       </c>
     </row>
     <row r="28" spans="1:21">
-      <c r="A28" s="22"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1">
         <v>23</v>
       </c>
-      <c r="C28" s="23"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="2">
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
@@ -5437,21 +5386,21 @@
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="23">
         <v>0.17</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <f t="shared" si="10"/>
         <v>3000</v>
       </c>
-      <c r="K28" s="33">
+      <c r="K28" s="24">
         <f t="shared" si="6"/>
         <v>6550</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="25">
         <v>0.51</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="24">
         <f t="shared" si="13"/>
         <v>28470</v>
       </c>
@@ -5459,48 +5408,48 @@
         <f t="shared" si="4"/>
         <v>230</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="23">
         <v>0.15</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="2">
         <f t="shared" si="7"/>
         <v>4856</v>
       </c>
-      <c r="Q28" s="33">
+      <c r="Q28" s="24">
         <f t="shared" si="8"/>
         <v>8406</v>
       </c>
-      <c r="R28" s="22">
+      <c r="R28" s="25">
         <v>0.37</v>
       </c>
-      <c r="S28" s="38">
+      <c r="S28" s="12">
         <f t="shared" si="9"/>
         <v>50050</v>
       </c>
-      <c r="T28" s="44">
+      <c r="T28" s="16">
         <f t="shared" si="11"/>
         <v>10000</v>
       </c>
-      <c r="U28" s="43">
+      <c r="U28" s="24">
         <f t="shared" si="12"/>
         <v>100100</v>
       </c>
     </row>
     <row r="29" spans="1:21">
-      <c r="A29" s="22"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="23"/>
+      <c r="C29" s="1"/>
       <c r="D29" s="2">
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
@@ -5512,21 +5461,21 @@
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="23">
         <v>0.17</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <f t="shared" si="10"/>
         <v>3102</v>
       </c>
-      <c r="K29" s="33">
+      <c r="K29" s="24">
         <f t="shared" si="6"/>
         <v>6802</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="25">
         <v>0.51</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="24">
         <f t="shared" si="13"/>
         <v>30000</v>
       </c>
@@ -5534,45 +5483,45 @@
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="23">
         <v>0.15</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="2">
         <f t="shared" si="7"/>
         <v>5026</v>
       </c>
-      <c r="Q29" s="33">
+      <c r="Q29" s="24">
         <f t="shared" si="8"/>
         <v>8726</v>
       </c>
-      <c r="R29" s="22">
+      <c r="R29" s="25">
         <v>0.34</v>
       </c>
-      <c r="S29" s="38">
+      <c r="S29" s="12">
         <f t="shared" si="9"/>
         <v>51750</v>
       </c>
-      <c r="T29" s="42">
+      <c r="T29" s="16">
         <f t="shared" si="11"/>
         <v>10340</v>
       </c>
-      <c r="U29" s="46"/>
+      <c r="U29" s="24"/>
     </row>
     <row r="30" spans="1:21">
-      <c r="A30" s="22"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="23"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="2">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
@@ -5584,21 +5533,21 @@
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="23">
         <v>0.17</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <f t="shared" si="10"/>
         <v>3204</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="24">
         <f t="shared" si="6"/>
         <v>7054</v>
       </c>
-      <c r="L30" s="22">
+      <c r="L30" s="25">
         <v>0.51</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="24">
         <f t="shared" si="13"/>
         <v>31530</v>
       </c>
@@ -5606,119 +5555,119 @@
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="23">
         <v>0.15</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="2">
         <f t="shared" si="7"/>
         <v>5196</v>
       </c>
-      <c r="Q30" s="33">
+      <c r="Q30" s="24">
         <f t="shared" si="8"/>
         <v>9046</v>
       </c>
-      <c r="R30" s="22">
+      <c r="R30" s="25">
         <v>0.31</v>
       </c>
-      <c r="S30" s="38">
+      <c r="S30" s="12">
         <f t="shared" si="9"/>
         <v>53300</v>
       </c>
-      <c r="T30" s="44">
+      <c r="T30" s="16">
         <f t="shared" si="11"/>
         <v>10680</v>
       </c>
-      <c r="U30" s="46"/>
+      <c r="U30" s="24"/>
     </row>
     <row r="31" s="11" customFormat="1" spans="1:21">
-      <c r="A31" s="24"/>
-      <c r="B31" s="25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20">
         <v>26</v>
       </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27">
+      <c r="C31" s="20"/>
+      <c r="D31" s="11">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="11">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F31" s="11">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="20">
         <f t="shared" si="5"/>
         <v>4000</v>
       </c>
-      <c r="H31" s="28">
+      <c r="H31" s="19">
         <f t="shared" si="3"/>
         <v>156</v>
       </c>
-      <c r="I31" s="27">
+      <c r="I31" s="28">
         <v>0.17</v>
       </c>
-      <c r="J31" s="27">
+      <c r="J31" s="11">
         <f t="shared" si="10"/>
         <v>3306</v>
       </c>
-      <c r="K31" s="34">
+      <c r="K31" s="29">
         <f t="shared" si="6"/>
         <v>7306</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="30">
         <v>0.51</v>
       </c>
-      <c r="M31" s="34">
+      <c r="M31" s="29">
         <f t="shared" si="13"/>
         <v>33060</v>
       </c>
-      <c r="N31" s="28">
+      <c r="N31" s="19">
         <f t="shared" si="4"/>
         <v>260</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="28">
         <v>0.15</v>
       </c>
-      <c r="P31" s="27">
+      <c r="P31" s="11">
         <f t="shared" si="7"/>
         <v>5366</v>
       </c>
-      <c r="Q31" s="34">
+      <c r="Q31" s="29">
         <f t="shared" si="8"/>
         <v>9366</v>
       </c>
-      <c r="R31" s="24">
+      <c r="R31" s="30">
         <v>0.27</v>
       </c>
-      <c r="S31" s="45">
+      <c r="S31" s="11">
         <f t="shared" si="9"/>
         <v>54650</v>
       </c>
-      <c r="T31" s="44">
+      <c r="T31" s="16">
         <f t="shared" ref="T31:T66" si="14">200*$I31*(N31-N30)+T30</f>
         <v>11020</v>
       </c>
-      <c r="U31" s="47"/>
+      <c r="U31" s="24"/>
     </row>
     <row r="32" s="10" customFormat="1" spans="1:21">
       <c r="A32" s="15"/>
       <c r="B32" s="17">
         <v>27</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>7</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="10">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="10">
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
@@ -5726,71 +5675,71 @@
         <f t="shared" si="5"/>
         <v>4150</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="15">
         <f t="shared" si="3"/>
         <v>162</v>
       </c>
-      <c r="I32" s="20">
+      <c r="I32" s="26">
         <v>0.16</v>
       </c>
-      <c r="J32" s="20">
+      <c r="J32" s="10">
         <f t="shared" si="10"/>
         <v>3402</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="22">
         <f t="shared" si="6"/>
         <v>7552</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="27">
         <v>0.5</v>
       </c>
-      <c r="M32" s="30">
+      <c r="M32" s="22">
         <f t="shared" si="13"/>
         <v>34560</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="15">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="26">
         <v>0.15</v>
       </c>
-      <c r="P32" s="20">
+      <c r="P32" s="10">
         <f t="shared" si="7"/>
         <v>5526</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="Q32" s="22">
         <f t="shared" si="8"/>
         <v>9676</v>
       </c>
-      <c r="R32" s="15">
+      <c r="R32" s="27">
         <v>0.22</v>
       </c>
-      <c r="S32" s="41">
+      <c r="S32" s="10">
         <f t="shared" si="9"/>
         <v>55750</v>
       </c>
-      <c r="T32" s="42">
+      <c r="T32" s="16">
         <f t="shared" si="14"/>
         <v>11340</v>
       </c>
-      <c r="U32" s="43"/>
+      <c r="U32" s="24"/>
     </row>
     <row r="33" spans="1:21">
-      <c r="A33" s="22"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="1">
         <v>28</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="1"/>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
@@ -5802,21 +5751,21 @@
         <f t="shared" si="3"/>
         <v>168</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="23">
         <v>0.16</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <f t="shared" si="10"/>
         <v>3498</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="24">
         <f t="shared" si="6"/>
         <v>7798</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="25">
         <v>0.5</v>
       </c>
-      <c r="M33" s="33">
+      <c r="M33" s="24">
         <f t="shared" si="13"/>
         <v>36060</v>
       </c>
@@ -5824,45 +5773,45 @@
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="O33" s="2">
+      <c r="O33" s="23">
         <v>0.15</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="2">
         <f t="shared" si="7"/>
         <v>5686</v>
       </c>
-      <c r="Q33" s="33">
+      <c r="Q33" s="24">
         <f t="shared" si="8"/>
         <v>9986</v>
       </c>
-      <c r="R33" s="22">
+      <c r="R33" s="25">
         <v>0.18</v>
       </c>
-      <c r="S33" s="38">
+      <c r="S33" s="12">
         <f t="shared" si="9"/>
         <v>56650</v>
       </c>
-      <c r="T33" s="44">
+      <c r="T33" s="16">
         <f t="shared" si="14"/>
         <v>11660</v>
       </c>
-      <c r="U33" s="46"/>
+      <c r="U33" s="24"/>
     </row>
     <row r="34" spans="1:21">
-      <c r="A34" s="22"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="1">
         <v>29</v>
       </c>
-      <c r="C34" s="23"/>
+      <c r="C34" s="1"/>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="2"/>
         <v>870</v>
       </c>
@@ -5874,21 +5823,21 @@
         <f t="shared" si="3"/>
         <v>174</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="23">
         <v>0.16</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <f t="shared" si="10"/>
         <v>3594</v>
       </c>
-      <c r="K34" s="33">
+      <c r="K34" s="24">
         <f t="shared" si="6"/>
         <v>8044</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="25">
         <v>0.5</v>
       </c>
-      <c r="M34" s="33">
+      <c r="M34" s="24">
         <f t="shared" si="13"/>
         <v>37560</v>
       </c>
@@ -5896,45 +5845,45 @@
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="O34" s="2">
+      <c r="O34" s="23">
         <v>0.15</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="2">
         <f t="shared" si="7"/>
         <v>5846</v>
       </c>
-      <c r="Q34" s="33">
+      <c r="Q34" s="24">
         <f t="shared" si="8"/>
         <v>10296</v>
       </c>
-      <c r="R34" s="22">
+      <c r="R34" s="25">
         <v>0.13</v>
       </c>
-      <c r="S34" s="38">
+      <c r="S34" s="12">
         <f t="shared" si="9"/>
         <v>57300</v>
       </c>
-      <c r="T34" s="42">
+      <c r="T34" s="16">
         <f t="shared" si="14"/>
         <v>11980</v>
       </c>
-      <c r="U34" s="46"/>
+      <c r="U34" s="24"/>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="22"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="1">
         <v>30</v>
       </c>
-      <c r="C35" s="23"/>
+      <c r="C35" s="1"/>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
@@ -5946,21 +5895,21 @@
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="23">
         <v>0.16</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <f t="shared" si="10"/>
         <v>3690</v>
       </c>
-      <c r="K35" s="33">
+      <c r="K35" s="24">
         <f t="shared" si="6"/>
         <v>8290</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="25">
         <v>0.48</v>
       </c>
-      <c r="M35" s="33">
+      <c r="M35" s="24">
         <f t="shared" si="13"/>
         <v>39000</v>
       </c>
@@ -5968,45 +5917,45 @@
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="23">
         <v>0.15</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="2">
         <f t="shared" si="7"/>
         <v>6006</v>
       </c>
-      <c r="Q35" s="33">
+      <c r="Q35" s="24">
         <f t="shared" si="8"/>
         <v>10606</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="25">
         <v>0.08</v>
       </c>
-      <c r="S35" s="38">
+      <c r="S35" s="12">
         <f t="shared" si="9"/>
         <v>57700</v>
       </c>
-      <c r="T35" s="44">
+      <c r="T35" s="16">
         <f t="shared" si="14"/>
         <v>12300</v>
       </c>
-      <c r="U35" s="46"/>
+      <c r="U35" s="24"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="22"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="1">
         <v>31</v>
       </c>
-      <c r="C36" s="23"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
         <v>930</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="2"/>
         <v>930</v>
       </c>
@@ -6018,21 +5967,21 @@
         <f t="shared" si="3"/>
         <v>186</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="23">
         <v>0.16</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <f t="shared" si="10"/>
         <v>3786</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="24">
         <f t="shared" si="6"/>
         <v>8536</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="25">
         <v>0.48</v>
       </c>
-      <c r="M36" s="33">
+      <c r="M36" s="24">
         <f t="shared" si="13"/>
         <v>40440</v>
       </c>
@@ -6040,45 +5989,45 @@
         <f t="shared" si="4"/>
         <v>310</v>
       </c>
-      <c r="O36" s="2">
+      <c r="O36" s="23">
         <v>0.15</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="2">
         <f t="shared" si="7"/>
         <v>6166</v>
       </c>
-      <c r="Q36" s="33">
+      <c r="Q36" s="24">
         <f t="shared" si="8"/>
         <v>10916</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R36" s="25">
         <v>0.08</v>
       </c>
-      <c r="S36" s="38">
+      <c r="S36" s="12">
         <f t="shared" si="9"/>
         <v>58100</v>
       </c>
-      <c r="T36" s="42">
+      <c r="T36" s="16">
         <f t="shared" si="14"/>
         <v>12620</v>
       </c>
-      <c r="U36" s="46"/>
+      <c r="U36" s="24"/>
     </row>
     <row r="37" spans="1:21">
-      <c r="A37" s="22"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="1">
         <v>32</v>
       </c>
-      <c r="C37" s="23"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="2"/>
         <v>960</v>
       </c>
@@ -6090,21 +6039,21 @@
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="23">
         <v>0.16</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <f t="shared" si="10"/>
         <v>3882</v>
       </c>
-      <c r="K37" s="33">
+      <c r="K37" s="24">
         <f t="shared" si="6"/>
         <v>8782</v>
       </c>
-      <c r="L37" s="22">
+      <c r="L37" s="25">
         <v>0.47</v>
       </c>
-      <c r="M37" s="33">
+      <c r="M37" s="24">
         <f t="shared" si="13"/>
         <v>41850</v>
       </c>
@@ -6112,45 +6061,45 @@
         <f t="shared" si="4"/>
         <v>320</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="23">
         <v>0.15</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="2">
         <f t="shared" si="7"/>
         <v>6326</v>
       </c>
-      <c r="Q37" s="33">
+      <c r="Q37" s="24">
         <f t="shared" si="8"/>
         <v>11226</v>
       </c>
-      <c r="R37" s="22">
+      <c r="R37" s="25">
         <v>0.08</v>
       </c>
-      <c r="S37" s="38">
+      <c r="S37" s="12">
         <f t="shared" si="9"/>
         <v>58500</v>
       </c>
-      <c r="T37" s="44">
+      <c r="T37" s="16">
         <f t="shared" si="14"/>
         <v>12940</v>
       </c>
-      <c r="U37" s="46"/>
+      <c r="U37" s="24"/>
     </row>
     <row r="38" spans="1:21">
-      <c r="A38" s="22"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="1">
         <v>33</v>
       </c>
-      <c r="C38" s="23"/>
+      <c r="C38" s="1"/>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
@@ -6162,21 +6111,21 @@
         <f t="shared" si="3"/>
         <v>198</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="23">
         <v>0.16</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="10"/>
         <v>3978</v>
       </c>
-      <c r="K38" s="33">
+      <c r="K38" s="24">
         <f t="shared" si="6"/>
         <v>9028</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L38" s="25">
         <v>0.45</v>
       </c>
-      <c r="M38" s="33">
+      <c r="M38" s="24">
         <f t="shared" si="13"/>
         <v>43200</v>
       </c>
@@ -6184,45 +6133,45 @@
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="23">
         <v>0.15</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <f t="shared" si="7"/>
         <v>6486</v>
       </c>
-      <c r="Q38" s="33">
+      <c r="Q38" s="24">
         <f t="shared" si="8"/>
         <v>11536</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R38" s="25">
         <v>0.08</v>
       </c>
-      <c r="S38" s="38">
+      <c r="S38" s="12">
         <f t="shared" si="9"/>
         <v>58900</v>
       </c>
-      <c r="T38" s="42">
+      <c r="T38" s="16">
         <f t="shared" si="14"/>
         <v>13260</v>
       </c>
-      <c r="U38" s="46"/>
+      <c r="U38" s="24"/>
     </row>
     <row r="39" spans="1:21">
-      <c r="A39" s="22"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="1">
         <v>34</v>
       </c>
-      <c r="C39" s="23"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="2">
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="2"/>
         <v>1020</v>
       </c>
@@ -6234,21 +6183,21 @@
         <f t="shared" si="3"/>
         <v>204</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="23">
         <v>0.16</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <f t="shared" si="10"/>
         <v>4074</v>
       </c>
-      <c r="K39" s="33">
+      <c r="K39" s="24">
         <f t="shared" ref="K39:K65" si="16">$J39+$G39</f>
         <v>9274</v>
       </c>
-      <c r="L39" s="22">
+      <c r="L39" s="25">
         <v>0.45</v>
       </c>
-      <c r="M39" s="33">
+      <c r="M39" s="24">
         <f t="shared" si="13"/>
         <v>44550</v>
       </c>
@@ -6256,119 +6205,119 @@
         <f t="shared" si="4"/>
         <v>340</v>
       </c>
-      <c r="O39" s="2">
+      <c r="O39" s="23">
         <v>0.15</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="2">
         <f t="shared" si="7"/>
         <v>6646</v>
       </c>
-      <c r="Q39" s="33">
+      <c r="Q39" s="24">
         <f t="shared" ref="Q39:Q65" si="17">$P39+$G39</f>
         <v>11846</v>
       </c>
-      <c r="R39" s="22">
+      <c r="R39" s="25">
         <v>0.08</v>
       </c>
-      <c r="S39" s="38">
+      <c r="S39" s="12">
         <f t="shared" si="9"/>
         <v>59300</v>
       </c>
-      <c r="T39" s="44">
+      <c r="T39" s="16">
         <f t="shared" si="14"/>
         <v>13580</v>
       </c>
-      <c r="U39" s="46"/>
+      <c r="U39" s="24"/>
     </row>
     <row r="40" s="11" customFormat="1" spans="1:21">
-      <c r="A40" s="24"/>
-      <c r="B40" s="25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20">
         <v>35</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="20"/>
       <c r="D40" s="11">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="11">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="F40" s="27">
+      <c r="F40" s="11">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="20">
         <f t="shared" si="15"/>
         <v>5350</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="19">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="I40" s="27">
+      <c r="I40" s="28">
         <v>0.16</v>
       </c>
-      <c r="J40" s="27">
+      <c r="J40" s="11">
         <f t="shared" ref="J40:J65" si="18">100*$I40*(H40-H39)+J39</f>
         <v>4170</v>
       </c>
-      <c r="K40" s="34">
+      <c r="K40" s="29">
         <f t="shared" si="16"/>
         <v>9520</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="30">
         <v>0.43</v>
       </c>
-      <c r="M40" s="34">
+      <c r="M40" s="29">
         <f t="shared" si="13"/>
         <v>45840</v>
       </c>
-      <c r="N40" s="28">
+      <c r="N40" s="19">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="28">
         <v>0.15</v>
       </c>
-      <c r="P40" s="27">
+      <c r="P40" s="11">
         <f t="shared" si="7"/>
         <v>6806</v>
       </c>
-      <c r="Q40" s="34">
+      <c r="Q40" s="29">
         <f t="shared" si="17"/>
         <v>12156</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="30">
         <v>0.08</v>
       </c>
-      <c r="S40" s="45">
+      <c r="S40" s="11">
         <f t="shared" si="9"/>
         <v>59700</v>
       </c>
-      <c r="T40" s="44">
+      <c r="T40" s="16">
         <f t="shared" si="14"/>
         <v>13900</v>
       </c>
-      <c r="U40" s="47"/>
+      <c r="U40" s="24"/>
     </row>
     <row r="41" s="10" customFormat="1" spans="1:21">
       <c r="A41" s="15"/>
       <c r="B41" s="17">
         <v>36</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>8</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="10">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="10">
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
@@ -6376,71 +6325,71 @@
         <f t="shared" si="15"/>
         <v>5500</v>
       </c>
-      <c r="H41" s="21">
+      <c r="H41" s="15">
         <f t="shared" si="3"/>
         <v>216</v>
       </c>
-      <c r="I41" s="20">
+      <c r="I41" s="26">
         <v>0.15</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="10">
         <f t="shared" si="18"/>
         <v>4260</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="22">
         <f t="shared" si="16"/>
         <v>9760</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="27">
         <v>0.43</v>
       </c>
-      <c r="M41" s="30">
+      <c r="M41" s="22">
         <f t="shared" si="13"/>
         <v>47130</v>
       </c>
-      <c r="N41" s="21">
+      <c r="N41" s="15">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="O41" s="10">
+      <c r="O41" s="26">
         <v>0.15</v>
       </c>
-      <c r="P41" s="20">
+      <c r="P41" s="10">
         <f t="shared" si="7"/>
         <v>6956</v>
       </c>
-      <c r="Q41" s="30">
+      <c r="Q41" s="22">
         <f t="shared" si="17"/>
         <v>12456</v>
       </c>
-      <c r="R41" s="15">
+      <c r="R41" s="27">
         <v>0.08</v>
       </c>
-      <c r="S41" s="41">
+      <c r="S41" s="10">
         <f t="shared" si="9"/>
         <v>60100</v>
       </c>
-      <c r="T41" s="42">
+      <c r="T41" s="16">
         <f t="shared" si="14"/>
         <v>14200</v>
       </c>
-      <c r="U41" s="43"/>
+      <c r="U41" s="24"/>
     </row>
     <row r="42" spans="1:21">
-      <c r="A42" s="22"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="1">
         <v>37</v>
       </c>
-      <c r="C42" s="23"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="2"/>
         <v>1110</v>
       </c>
@@ -6452,21 +6401,21 @@
         <f t="shared" si="3"/>
         <v>222</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="23">
         <v>0.15</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="2">
         <f t="shared" si="18"/>
         <v>4350</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="24">
         <f t="shared" si="16"/>
         <v>10000</v>
       </c>
-      <c r="L42" s="22">
+      <c r="L42" s="25">
         <v>0.4</v>
       </c>
-      <c r="M42" s="33">
+      <c r="M42" s="24">
         <f t="shared" si="13"/>
         <v>48330</v>
       </c>
@@ -6474,45 +6423,45 @@
         <f t="shared" si="4"/>
         <v>370</v>
       </c>
-      <c r="O42" s="2">
+      <c r="O42" s="23">
         <v>0.15</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="2">
         <f t="shared" si="7"/>
         <v>7106</v>
       </c>
-      <c r="Q42" s="33">
+      <c r="Q42" s="24">
         <f t="shared" si="17"/>
         <v>12756</v>
       </c>
-      <c r="R42" s="22">
+      <c r="R42" s="25">
         <v>0.08</v>
       </c>
-      <c r="S42" s="38">
+      <c r="S42" s="12">
         <f t="shared" si="9"/>
         <v>60500</v>
       </c>
-      <c r="T42" s="44">
+      <c r="T42" s="16">
         <f t="shared" si="14"/>
         <v>14500</v>
       </c>
-      <c r="U42" s="43"/>
+      <c r="U42" s="24"/>
     </row>
     <row r="43" spans="1:21">
-      <c r="A43" s="22"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="1">
         <v>38</v>
       </c>
-      <c r="C43" s="23"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
@@ -6524,21 +6473,21 @@
         <f t="shared" si="3"/>
         <v>228</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="23">
         <v>0.15</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="2">
         <f t="shared" si="18"/>
         <v>4440</v>
       </c>
-      <c r="K43" s="33">
+      <c r="K43" s="24">
         <f t="shared" si="16"/>
         <v>10240</v>
       </c>
-      <c r="L43" s="22">
+      <c r="L43" s="25">
         <v>0.37</v>
       </c>
-      <c r="M43" s="33">
+      <c r="M43" s="24">
         <f t="shared" ref="M43:M65" si="19">L43*(H43-H42)*500+M42</f>
         <v>49440</v>
       </c>
@@ -6546,45 +6495,45 @@
         <f t="shared" si="4"/>
         <v>380</v>
       </c>
-      <c r="O43" s="2">
+      <c r="O43" s="23">
         <v>0.15</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="2">
         <f t="shared" si="7"/>
         <v>7256</v>
       </c>
-      <c r="Q43" s="33">
+      <c r="Q43" s="24">
         <f t="shared" si="17"/>
         <v>13056</v>
       </c>
-      <c r="R43" s="22">
+      <c r="R43" s="25">
         <v>0.08</v>
       </c>
-      <c r="S43" s="38">
+      <c r="S43" s="12">
         <f t="shared" si="9"/>
         <v>60900</v>
       </c>
-      <c r="T43" s="42">
+      <c r="T43" s="16">
         <f t="shared" si="14"/>
         <v>14800</v>
       </c>
-      <c r="U43" s="43"/>
+      <c r="U43" s="24"/>
     </row>
     <row r="44" spans="1:21">
-      <c r="A44" s="22"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="1">
         <v>39</v>
       </c>
-      <c r="C44" s="23"/>
+      <c r="C44" s="1"/>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="2"/>
         <v>1170</v>
       </c>
@@ -6596,21 +6545,21 @@
         <f t="shared" si="3"/>
         <v>234</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="23">
         <v>0.15</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="2">
         <f t="shared" si="18"/>
         <v>4530</v>
       </c>
-      <c r="K44" s="33">
+      <c r="K44" s="24">
         <f t="shared" si="16"/>
         <v>10480</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="25">
         <v>0.37</v>
       </c>
-      <c r="M44" s="33">
+      <c r="M44" s="24">
         <f t="shared" si="19"/>
         <v>50550</v>
       </c>
@@ -6618,45 +6567,45 @@
         <f t="shared" si="4"/>
         <v>390</v>
       </c>
-      <c r="O44" s="2">
+      <c r="O44" s="23">
         <v>0.15</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="2">
         <f t="shared" si="7"/>
         <v>7406</v>
       </c>
-      <c r="Q44" s="33">
+      <c r="Q44" s="24">
         <f t="shared" si="17"/>
         <v>13356</v>
       </c>
-      <c r="R44" s="22">
+      <c r="R44" s="25">
         <v>0.08</v>
       </c>
-      <c r="S44" s="38">
+      <c r="S44" s="12">
         <f t="shared" si="9"/>
         <v>61300</v>
       </c>
-      <c r="T44" s="44">
+      <c r="T44" s="16">
         <f t="shared" si="14"/>
         <v>15100</v>
       </c>
-      <c r="U44" s="43"/>
+      <c r="U44" s="24"/>
     </row>
     <row r="45" spans="1:21">
-      <c r="A45" s="22"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="1">
         <v>40</v>
       </c>
-      <c r="C45" s="23"/>
+      <c r="C45" s="1"/>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
@@ -6668,21 +6617,21 @@
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="23">
         <v>0.15</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="2">
         <f t="shared" si="18"/>
         <v>4620</v>
       </c>
-      <c r="K45" s="33">
+      <c r="K45" s="24">
         <f t="shared" si="16"/>
         <v>10720</v>
       </c>
-      <c r="L45" s="22">
+      <c r="L45" s="25">
         <v>0.34</v>
       </c>
-      <c r="M45" s="33">
+      <c r="M45" s="24">
         <f t="shared" si="19"/>
         <v>51570</v>
       </c>
@@ -6690,45 +6639,45 @@
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="O45" s="2">
+      <c r="O45" s="23">
         <v>0.15</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="2">
         <f t="shared" si="7"/>
         <v>7556</v>
       </c>
-      <c r="Q45" s="33">
+      <c r="Q45" s="24">
         <f t="shared" si="17"/>
         <v>13656</v>
       </c>
-      <c r="R45" s="22">
+      <c r="R45" s="25">
         <v>0.08</v>
       </c>
-      <c r="S45" s="38">
+      <c r="S45" s="12">
         <f t="shared" si="9"/>
         <v>61700</v>
       </c>
-      <c r="T45" s="42">
+      <c r="T45" s="16">
         <f t="shared" si="14"/>
         <v>15400</v>
       </c>
-      <c r="U45" s="43"/>
+      <c r="U45" s="24"/>
     </row>
     <row r="46" spans="1:21">
-      <c r="A46" s="22"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="1">
         <v>41</v>
       </c>
-      <c r="C46" s="23"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="2"/>
         <v>1230</v>
       </c>
@@ -6740,21 +6689,21 @@
         <f t="shared" si="3"/>
         <v>246</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="23">
         <v>0.15</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="2">
         <f t="shared" si="18"/>
         <v>4710</v>
       </c>
-      <c r="K46" s="33">
+      <c r="K46" s="24">
         <f t="shared" si="16"/>
         <v>10960</v>
       </c>
-      <c r="L46" s="22">
+      <c r="L46" s="25">
         <v>0.34</v>
       </c>
-      <c r="M46" s="33">
+      <c r="M46" s="24">
         <f t="shared" si="19"/>
         <v>52590</v>
       </c>
@@ -6762,45 +6711,45 @@
         <f t="shared" si="4"/>
         <v>410</v>
       </c>
-      <c r="O46" s="2">
+      <c r="O46" s="23">
         <v>0.15</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="2">
         <f t="shared" si="7"/>
         <v>7706</v>
       </c>
-      <c r="Q46" s="33">
+      <c r="Q46" s="24">
         <f t="shared" si="17"/>
         <v>13956</v>
       </c>
-      <c r="R46" s="22">
+      <c r="R46" s="25">
         <v>0.08</v>
       </c>
-      <c r="S46" s="38">
+      <c r="S46" s="12">
         <f t="shared" si="9"/>
         <v>62100</v>
       </c>
-      <c r="T46" s="44">
+      <c r="T46" s="16">
         <f t="shared" si="14"/>
         <v>15700</v>
       </c>
-      <c r="U46" s="43"/>
+      <c r="U46" s="24"/>
     </row>
     <row r="47" spans="1:21">
-      <c r="A47" s="22"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="1">
         <v>42</v>
       </c>
-      <c r="C47" s="23"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="2">
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <f t="shared" si="2"/>
         <v>1260</v>
       </c>
@@ -6812,21 +6761,21 @@
         <f t="shared" si="3"/>
         <v>252</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="23">
         <v>0.15</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="2">
         <f t="shared" si="18"/>
         <v>4800</v>
       </c>
-      <c r="K47" s="33">
+      <c r="K47" s="24">
         <f t="shared" si="16"/>
         <v>11200</v>
       </c>
-      <c r="L47" s="22">
+      <c r="L47" s="25">
         <v>0.31</v>
       </c>
-      <c r="M47" s="33">
+      <c r="M47" s="24">
         <f t="shared" si="19"/>
         <v>53520</v>
       </c>
@@ -6834,45 +6783,45 @@
         <f t="shared" si="4"/>
         <v>420</v>
       </c>
-      <c r="O47" s="2">
+      <c r="O47" s="23">
         <v>0.15</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="2">
         <f t="shared" si="7"/>
         <v>7856</v>
       </c>
-      <c r="Q47" s="33">
+      <c r="Q47" s="24">
         <f t="shared" si="17"/>
         <v>14256</v>
       </c>
-      <c r="R47" s="22">
+      <c r="R47" s="25">
         <v>0.08</v>
       </c>
-      <c r="S47" s="38">
+      <c r="S47" s="12">
         <f t="shared" si="9"/>
         <v>62500</v>
       </c>
-      <c r="T47" s="42">
+      <c r="T47" s="16">
         <f t="shared" si="14"/>
         <v>16000</v>
       </c>
-      <c r="U47" s="43"/>
+      <c r="U47" s="24"/>
     </row>
     <row r="48" spans="1:21">
-      <c r="A48" s="22"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="1">
         <v>43</v>
       </c>
-      <c r="C48" s="23"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
         <v>1290</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="2"/>
         <v>1290</v>
       </c>
@@ -6884,21 +6833,21 @@
         <f t="shared" si="3"/>
         <v>258</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="23">
         <v>0.15</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="2">
         <f t="shared" si="18"/>
         <v>4890</v>
       </c>
-      <c r="K48" s="33">
+      <c r="K48" s="24">
         <f t="shared" si="16"/>
         <v>11440</v>
       </c>
-      <c r="L48" s="22">
+      <c r="L48" s="25">
         <v>0.27</v>
       </c>
-      <c r="M48" s="33">
+      <c r="M48" s="24">
         <f t="shared" si="19"/>
         <v>54330</v>
       </c>
@@ -6906,45 +6855,45 @@
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
-      <c r="O48" s="2">
+      <c r="O48" s="23">
         <v>0.15</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="2">
         <f t="shared" si="7"/>
         <v>8006</v>
       </c>
-      <c r="Q48" s="33">
+      <c r="Q48" s="24">
         <f t="shared" si="17"/>
         <v>14556</v>
       </c>
-      <c r="R48" s="22">
+      <c r="R48" s="25">
         <v>0.08</v>
       </c>
-      <c r="S48" s="38">
+      <c r="S48" s="12">
         <f t="shared" si="9"/>
         <v>62900</v>
       </c>
-      <c r="T48" s="44">
+      <c r="T48" s="16">
         <f t="shared" si="14"/>
         <v>16300</v>
       </c>
-      <c r="U48" s="43"/>
+      <c r="U48" s="24"/>
     </row>
     <row r="49" spans="1:21">
-      <c r="A49" s="22"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="1">
         <v>44</v>
       </c>
-      <c r="C49" s="23"/>
+      <c r="C49" s="1"/>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <f t="shared" si="2"/>
         <v>1320</v>
       </c>
@@ -6956,21 +6905,21 @@
         <f t="shared" si="3"/>
         <v>264</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="23">
         <v>0.15</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="2">
         <f t="shared" si="18"/>
         <v>4980</v>
       </c>
-      <c r="K49" s="33">
+      <c r="K49" s="24">
         <f t="shared" si="16"/>
         <v>11680</v>
       </c>
-      <c r="L49" s="22">
+      <c r="L49" s="25">
         <v>0.27</v>
       </c>
-      <c r="M49" s="33">
+      <c r="M49" s="24">
         <f t="shared" si="19"/>
         <v>55140</v>
       </c>
@@ -6978,45 +6927,45 @@
         <f t="shared" si="4"/>
         <v>440</v>
       </c>
-      <c r="O49" s="2">
+      <c r="O49" s="23">
         <v>0.15</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="2">
         <f t="shared" si="7"/>
         <v>8156</v>
       </c>
-      <c r="Q49" s="33">
+      <c r="Q49" s="24">
         <f t="shared" si="17"/>
         <v>14856</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="25">
         <v>0.08</v>
       </c>
-      <c r="S49" s="38">
+      <c r="S49" s="12">
         <f t="shared" si="9"/>
         <v>63300</v>
       </c>
-      <c r="T49" s="44">
+      <c r="T49" s="16">
         <f t="shared" si="14"/>
         <v>16600</v>
       </c>
-      <c r="U49" s="43"/>
+      <c r="U49" s="24"/>
     </row>
     <row r="50" spans="1:21">
-      <c r="A50" s="22"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="1">
         <v>45</v>
       </c>
-      <c r="C50" s="23"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
@@ -7028,21 +6977,21 @@
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="23">
         <v>0.15</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="2">
         <f t="shared" si="18"/>
         <v>5070</v>
       </c>
-      <c r="K50" s="33">
+      <c r="K50" s="24">
         <f t="shared" si="16"/>
         <v>11920</v>
       </c>
-      <c r="L50" s="22">
+      <c r="L50" s="25">
         <v>0.22</v>
       </c>
-      <c r="M50" s="33">
+      <c r="M50" s="24">
         <f t="shared" si="19"/>
         <v>55800</v>
       </c>
@@ -7050,45 +6999,45 @@
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="O50" s="2">
+      <c r="O50" s="23">
         <v>0.15</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="2">
         <f t="shared" si="7"/>
         <v>8306</v>
       </c>
-      <c r="Q50" s="33">
+      <c r="Q50" s="24">
         <f t="shared" si="17"/>
         <v>15156</v>
       </c>
-      <c r="R50" s="22">
+      <c r="R50" s="25">
         <v>0.08</v>
       </c>
-      <c r="S50" s="38">
+      <c r="S50" s="12">
         <f t="shared" si="9"/>
         <v>63700</v>
       </c>
-      <c r="T50" s="42">
+      <c r="T50" s="16">
         <f t="shared" si="14"/>
         <v>16900</v>
       </c>
-      <c r="U50" s="43"/>
+      <c r="U50" s="24"/>
     </row>
     <row r="51" spans="1:21">
-      <c r="A51" s="22"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="1">
         <v>46</v>
       </c>
-      <c r="C51" s="23"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="2"/>
         <v>1380</v>
       </c>
@@ -7100,21 +7049,21 @@
         <f t="shared" si="3"/>
         <v>276</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="23">
         <v>0.15</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="2">
         <f t="shared" si="18"/>
         <v>5160</v>
       </c>
-      <c r="K51" s="33">
+      <c r="K51" s="24">
         <f t="shared" si="16"/>
         <v>12160</v>
       </c>
-      <c r="L51" s="22">
+      <c r="L51" s="25">
         <v>0.22</v>
       </c>
-      <c r="M51" s="33">
+      <c r="M51" s="24">
         <f t="shared" si="19"/>
         <v>56460</v>
       </c>
@@ -7122,45 +7071,45 @@
         <f t="shared" si="4"/>
         <v>460</v>
       </c>
-      <c r="O51" s="2">
+      <c r="O51" s="23">
         <v>0.15</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="2">
         <f t="shared" si="7"/>
         <v>8456</v>
       </c>
-      <c r="Q51" s="33">
+      <c r="Q51" s="24">
         <f t="shared" si="17"/>
         <v>15456</v>
       </c>
-      <c r="R51" s="22">
+      <c r="R51" s="25">
         <v>0.08</v>
       </c>
-      <c r="S51" s="38">
+      <c r="S51" s="12">
         <f t="shared" si="9"/>
         <v>64100</v>
       </c>
-      <c r="T51" s="44">
+      <c r="T51" s="16">
         <f t="shared" si="14"/>
         <v>17200</v>
       </c>
-      <c r="U51" s="43"/>
+      <c r="U51" s="24"/>
     </row>
     <row r="52" spans="1:21">
-      <c r="A52" s="22"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="1">
         <v>47</v>
       </c>
-      <c r="C52" s="23"/>
+      <c r="C52" s="1"/>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
         <v>1410</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="2"/>
         <v>1410</v>
       </c>
@@ -7172,21 +7121,21 @@
         <f t="shared" si="3"/>
         <v>282</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="23">
         <v>0.15</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="2">
         <f t="shared" si="18"/>
         <v>5250</v>
       </c>
-      <c r="K52" s="33">
+      <c r="K52" s="24">
         <f t="shared" si="16"/>
         <v>12400</v>
       </c>
-      <c r="L52" s="22">
+      <c r="L52" s="25">
         <v>0.18</v>
       </c>
-      <c r="M52" s="33">
+      <c r="M52" s="24">
         <f t="shared" si="19"/>
         <v>57000</v>
       </c>
@@ -7194,45 +7143,45 @@
         <f t="shared" si="4"/>
         <v>470</v>
       </c>
-      <c r="O52" s="2">
+      <c r="O52" s="23">
         <v>0.15</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="2">
         <f t="shared" si="7"/>
         <v>8606</v>
       </c>
-      <c r="Q52" s="33">
+      <c r="Q52" s="24">
         <f t="shared" si="17"/>
         <v>15756</v>
       </c>
-      <c r="R52" s="22">
+      <c r="R52" s="25">
         <v>0.08</v>
       </c>
-      <c r="S52" s="38">
+      <c r="S52" s="12">
         <f t="shared" si="9"/>
         <v>64500</v>
       </c>
-      <c r="T52" s="42">
+      <c r="T52" s="16">
         <f t="shared" si="14"/>
         <v>17500</v>
       </c>
-      <c r="U52" s="43"/>
+      <c r="U52" s="24"/>
     </row>
     <row r="53" spans="1:21">
-      <c r="A53" s="22"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="1">
         <v>48</v>
       </c>
-      <c r="C53" s="23"/>
+      <c r="C53" s="1"/>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
@@ -7244,21 +7193,21 @@
         <f t="shared" si="3"/>
         <v>288</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="23">
         <v>0.15</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="2">
         <f t="shared" si="18"/>
         <v>5340</v>
       </c>
-      <c r="K53" s="33">
+      <c r="K53" s="24">
         <f t="shared" si="16"/>
         <v>12640</v>
       </c>
-      <c r="L53" s="22">
+      <c r="L53" s="25">
         <v>0.13</v>
       </c>
-      <c r="M53" s="33">
+      <c r="M53" s="24">
         <f t="shared" si="19"/>
         <v>57390</v>
       </c>
@@ -7266,45 +7215,45 @@
         <f t="shared" si="4"/>
         <v>480</v>
       </c>
-      <c r="O53" s="2">
+      <c r="O53" s="23">
         <v>0.15</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="2">
         <f t="shared" si="7"/>
         <v>8756</v>
       </c>
-      <c r="Q53" s="33">
+      <c r="Q53" s="24">
         <f t="shared" si="17"/>
         <v>16056</v>
       </c>
-      <c r="R53" s="22">
+      <c r="R53" s="25">
         <v>0.08</v>
       </c>
-      <c r="S53" s="38">
+      <c r="S53" s="12">
         <f t="shared" si="9"/>
         <v>64900</v>
       </c>
-      <c r="T53" s="44">
+      <c r="T53" s="16">
         <f t="shared" si="14"/>
         <v>17800</v>
       </c>
-      <c r="U53" s="43"/>
+      <c r="U53" s="24"/>
     </row>
     <row r="54" spans="1:21">
-      <c r="A54" s="22"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="1">
         <v>49</v>
       </c>
-      <c r="C54" s="23"/>
+      <c r="C54" s="1"/>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <f t="shared" si="2"/>
         <v>1470</v>
       </c>
@@ -7316,21 +7265,21 @@
         <f t="shared" si="3"/>
         <v>294</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="23">
         <v>0.15</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="2">
         <f t="shared" si="18"/>
         <v>5430</v>
       </c>
-      <c r="K54" s="33">
+      <c r="K54" s="24">
         <f t="shared" si="16"/>
         <v>12880</v>
       </c>
-      <c r="L54" s="22">
+      <c r="L54" s="25">
         <v>0.13</v>
       </c>
-      <c r="M54" s="33">
+      <c r="M54" s="24">
         <f t="shared" si="19"/>
         <v>57780</v>
       </c>
@@ -7338,45 +7287,45 @@
         <f t="shared" si="4"/>
         <v>490</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="23">
         <v>0.15</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="2">
         <f t="shared" si="7"/>
         <v>8906</v>
       </c>
-      <c r="Q54" s="33">
+      <c r="Q54" s="24">
         <f t="shared" si="17"/>
         <v>16356</v>
       </c>
-      <c r="R54" s="22">
+      <c r="R54" s="25">
         <v>0.08</v>
       </c>
-      <c r="S54" s="38">
+      <c r="S54" s="12">
         <f t="shared" si="9"/>
         <v>65300</v>
       </c>
-      <c r="T54" s="42">
+      <c r="T54" s="16">
         <f t="shared" si="14"/>
         <v>18100</v>
       </c>
-      <c r="U54" s="43"/>
+      <c r="U54" s="24"/>
     </row>
     <row r="55" spans="1:21">
-      <c r="A55" s="22"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="1">
         <v>50</v>
       </c>
-      <c r="C55" s="23"/>
+      <c r="C55" s="1"/>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
@@ -7388,21 +7337,21 @@
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="23">
         <v>0.15</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="2">
         <f t="shared" si="18"/>
         <v>5520</v>
       </c>
-      <c r="K55" s="33">
+      <c r="K55" s="24">
         <f t="shared" si="16"/>
         <v>13120</v>
       </c>
-      <c r="L55" s="22">
+      <c r="L55" s="25">
         <v>0.08</v>
       </c>
-      <c r="M55" s="33">
+      <c r="M55" s="24">
         <f t="shared" si="19"/>
         <v>58020</v>
       </c>
@@ -7410,45 +7359,45 @@
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="O55" s="2">
+      <c r="O55" s="23">
         <v>0.15</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="2">
         <f t="shared" si="7"/>
         <v>9056</v>
       </c>
-      <c r="Q55" s="33">
+      <c r="Q55" s="24">
         <f t="shared" si="17"/>
         <v>16656</v>
       </c>
-      <c r="R55" s="22">
+      <c r="R55" s="25">
         <v>0.08</v>
       </c>
-      <c r="S55" s="38">
+      <c r="S55" s="12">
         <f t="shared" si="9"/>
         <v>65700</v>
       </c>
-      <c r="T55" s="44">
+      <c r="T55" s="16">
         <f t="shared" si="14"/>
         <v>18400</v>
       </c>
-      <c r="U55" s="43"/>
+      <c r="U55" s="24"/>
     </row>
     <row r="56" spans="1:21">
-      <c r="A56" s="22"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="1">
         <v>51</v>
       </c>
-      <c r="C56" s="23"/>
+      <c r="C56" s="1"/>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
         <v>1530</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <f t="shared" si="2"/>
         <v>1530</v>
       </c>
@@ -7460,21 +7409,21 @@
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="23">
         <v>0.15</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="2">
         <f t="shared" si="18"/>
         <v>5610</v>
       </c>
-      <c r="K56" s="33">
+      <c r="K56" s="24">
         <f t="shared" si="16"/>
         <v>13360</v>
       </c>
-      <c r="L56" s="22">
+      <c r="L56" s="25">
         <v>0.08</v>
       </c>
-      <c r="M56" s="33">
+      <c r="M56" s="24">
         <f t="shared" si="19"/>
         <v>58260</v>
       </c>
@@ -7482,45 +7431,45 @@
         <f t="shared" si="4"/>
         <v>510</v>
       </c>
-      <c r="O56" s="2">
+      <c r="O56" s="23">
         <v>0.15</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="2">
         <f t="shared" si="7"/>
         <v>9206</v>
       </c>
-      <c r="Q56" s="33">
+      <c r="Q56" s="24">
         <f t="shared" si="17"/>
         <v>16956</v>
       </c>
-      <c r="R56" s="22">
+      <c r="R56" s="25">
         <v>0.08</v>
       </c>
-      <c r="S56" s="38">
+      <c r="S56" s="12">
         <f t="shared" si="9"/>
         <v>66100</v>
       </c>
-      <c r="T56" s="42">
+      <c r="T56" s="16">
         <f t="shared" si="14"/>
         <v>18700</v>
       </c>
-      <c r="U56" s="43"/>
+      <c r="U56" s="24"/>
     </row>
     <row r="57" spans="1:21">
-      <c r="A57" s="22"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="1">
         <v>52</v>
       </c>
-      <c r="C57" s="23"/>
+      <c r="C57" s="1"/>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <f t="shared" si="2"/>
         <v>1560</v>
       </c>
@@ -7532,21 +7481,21 @@
         <f t="shared" si="3"/>
         <v>312</v>
       </c>
-      <c r="I57" s="3">
+      <c r="I57" s="23">
         <v>0.15</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="2">
         <f t="shared" si="18"/>
         <v>5700</v>
       </c>
-      <c r="K57" s="33">
+      <c r="K57" s="24">
         <f t="shared" si="16"/>
         <v>13600</v>
       </c>
-      <c r="L57" s="22">
+      <c r="L57" s="25">
         <v>0.08</v>
       </c>
-      <c r="M57" s="33">
+      <c r="M57" s="24">
         <f t="shared" si="19"/>
         <v>58500</v>
       </c>
@@ -7554,45 +7503,45 @@
         <f t="shared" si="4"/>
         <v>520</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O57" s="23">
         <v>0.15</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="2">
         <f t="shared" si="7"/>
         <v>9356</v>
       </c>
-      <c r="Q57" s="33">
+      <c r="Q57" s="24">
         <f t="shared" si="17"/>
         <v>17256</v>
       </c>
-      <c r="R57" s="22">
+      <c r="R57" s="25">
         <v>0.08</v>
       </c>
-      <c r="S57" s="38">
+      <c r="S57" s="12">
         <f t="shared" si="9"/>
         <v>66500</v>
       </c>
-      <c r="T57" s="44">
+      <c r="T57" s="16">
         <f t="shared" si="14"/>
         <v>19000</v>
       </c>
-      <c r="U57" s="43"/>
+      <c r="U57" s="24"/>
     </row>
     <row r="58" spans="1:21">
-      <c r="A58" s="22"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="1">
         <v>53</v>
       </c>
-      <c r="C58" s="23"/>
+      <c r="C58" s="1"/>
       <c r="D58" s="2">
         <f t="shared" si="0"/>
         <v>1590</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <f t="shared" si="2"/>
         <v>1590</v>
       </c>
@@ -7604,21 +7553,21 @@
         <f t="shared" si="3"/>
         <v>318</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="23">
         <v>0.15</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="2">
         <f t="shared" si="18"/>
         <v>5790</v>
       </c>
-      <c r="K58" s="33">
+      <c r="K58" s="24">
         <f t="shared" si="16"/>
         <v>13840</v>
       </c>
-      <c r="L58" s="22">
+      <c r="L58" s="25">
         <v>0.08</v>
       </c>
-      <c r="M58" s="33">
+      <c r="M58" s="24">
         <f t="shared" si="19"/>
         <v>58740</v>
       </c>
@@ -7626,45 +7575,45 @@
         <f t="shared" si="4"/>
         <v>530</v>
       </c>
-      <c r="O58" s="2">
+      <c r="O58" s="23">
         <v>0.15</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="2">
         <f t="shared" si="7"/>
         <v>9506</v>
       </c>
-      <c r="Q58" s="33">
+      <c r="Q58" s="24">
         <f t="shared" si="17"/>
         <v>17556</v>
       </c>
-      <c r="R58" s="22">
+      <c r="R58" s="25">
         <v>0.08</v>
       </c>
-      <c r="S58" s="38">
+      <c r="S58" s="12">
         <f t="shared" si="9"/>
         <v>66900</v>
       </c>
-      <c r="T58" s="44">
+      <c r="T58" s="16">
         <f t="shared" si="14"/>
         <v>19300</v>
       </c>
-      <c r="U58" s="43"/>
+      <c r="U58" s="24"/>
     </row>
     <row r="59" spans="1:21">
-      <c r="A59" s="22"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="1">
         <v>54</v>
       </c>
-      <c r="C59" s="23"/>
+      <c r="C59" s="1"/>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f t="shared" si="2"/>
         <v>1620</v>
       </c>
@@ -7676,21 +7625,21 @@
         <f t="shared" si="3"/>
         <v>324</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="23">
         <v>0.15</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="2">
         <f t="shared" si="18"/>
         <v>5880</v>
       </c>
-      <c r="K59" s="33">
+      <c r="K59" s="24">
         <f t="shared" si="16"/>
         <v>14080</v>
       </c>
-      <c r="L59" s="22">
+      <c r="L59" s="25">
         <v>0.08</v>
       </c>
-      <c r="M59" s="33">
+      <c r="M59" s="24">
         <f t="shared" si="19"/>
         <v>58980</v>
       </c>
@@ -7698,45 +7647,45 @@
         <f t="shared" si="4"/>
         <v>540</v>
       </c>
-      <c r="O59" s="2">
+      <c r="O59" s="23">
         <v>0.15</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="2">
         <f t="shared" si="7"/>
         <v>9656</v>
       </c>
-      <c r="Q59" s="33">
+      <c r="Q59" s="24">
         <f t="shared" si="17"/>
         <v>17856</v>
       </c>
-      <c r="R59" s="22">
+      <c r="R59" s="25">
         <v>0.08</v>
       </c>
-      <c r="S59" s="38">
+      <c r="S59" s="12">
         <f t="shared" si="9"/>
         <v>67300</v>
       </c>
-      <c r="T59" s="42">
+      <c r="T59" s="16">
         <f t="shared" si="14"/>
         <v>19600</v>
       </c>
-      <c r="U59" s="43"/>
+      <c r="U59" s="24"/>
     </row>
     <row r="60" spans="1:21">
-      <c r="A60" s="22"/>
+      <c r="A60" s="16"/>
       <c r="B60" s="1">
         <v>55</v>
       </c>
-      <c r="C60" s="23"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
@@ -7748,21 +7697,21 @@
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="I60" s="3">
+      <c r="I60" s="23">
         <v>0.15</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="2">
         <f t="shared" si="18"/>
         <v>5970</v>
       </c>
-      <c r="K60" s="33">
+      <c r="K60" s="24">
         <f t="shared" si="16"/>
         <v>14320</v>
       </c>
-      <c r="L60" s="22">
+      <c r="L60" s="25">
         <v>0.08</v>
       </c>
-      <c r="M60" s="33">
+      <c r="M60" s="24">
         <f t="shared" si="19"/>
         <v>59220</v>
       </c>
@@ -7770,45 +7719,45 @@
         <f t="shared" si="4"/>
         <v>550</v>
       </c>
-      <c r="O60" s="2">
+      <c r="O60" s="23">
         <v>0.15</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="2">
         <f t="shared" si="7"/>
         <v>9806</v>
       </c>
-      <c r="Q60" s="33">
+      <c r="Q60" s="24">
         <f t="shared" si="17"/>
         <v>18156</v>
       </c>
-      <c r="R60" s="22">
+      <c r="R60" s="25">
         <v>0.08</v>
       </c>
-      <c r="S60" s="38">
+      <c r="S60" s="12">
         <f t="shared" si="9"/>
         <v>67700</v>
       </c>
-      <c r="T60" s="44">
+      <c r="T60" s="16">
         <f t="shared" si="14"/>
         <v>19900</v>
       </c>
-      <c r="U60" s="43"/>
+      <c r="U60" s="24"/>
     </row>
     <row r="61" spans="1:21">
-      <c r="A61" s="22"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="1">
         <v>56</v>
       </c>
-      <c r="C61" s="23"/>
+      <c r="C61" s="1"/>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f t="shared" si="2"/>
         <v>1680</v>
       </c>
@@ -7820,21 +7769,21 @@
         <f t="shared" si="3"/>
         <v>336</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="23">
         <v>0.15</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J61" s="2">
         <f t="shared" si="18"/>
         <v>6060</v>
       </c>
-      <c r="K61" s="33">
+      <c r="K61" s="24">
         <f t="shared" si="16"/>
         <v>14560</v>
       </c>
-      <c r="L61" s="22">
+      <c r="L61" s="25">
         <v>0.08</v>
       </c>
-      <c r="M61" s="33">
+      <c r="M61" s="24">
         <f t="shared" si="19"/>
         <v>59460</v>
       </c>
@@ -7842,45 +7791,45 @@
         <f t="shared" si="4"/>
         <v>560</v>
       </c>
-      <c r="O61" s="2">
+      <c r="O61" s="23">
         <v>0.15</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="2">
         <f t="shared" si="7"/>
         <v>9956</v>
       </c>
-      <c r="Q61" s="33">
+      <c r="Q61" s="24">
         <f t="shared" si="17"/>
         <v>18456</v>
       </c>
-      <c r="R61" s="22">
+      <c r="R61" s="25">
         <v>0.08</v>
       </c>
-      <c r="S61" s="38">
+      <c r="S61" s="12">
         <f t="shared" si="9"/>
         <v>68100</v>
       </c>
-      <c r="T61" s="42">
+      <c r="T61" s="16">
         <f t="shared" si="14"/>
         <v>20200</v>
       </c>
-      <c r="U61" s="43"/>
+      <c r="U61" s="24"/>
     </row>
     <row r="62" spans="1:21">
-      <c r="A62" s="22"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="1">
         <v>57</v>
       </c>
-      <c r="C62" s="23"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="2">
         <f t="shared" si="0"/>
         <v>1710</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" si="2"/>
         <v>1710</v>
       </c>
@@ -7892,21 +7841,21 @@
         <f t="shared" si="3"/>
         <v>342</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="23">
         <v>0.15</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="2">
         <f t="shared" si="18"/>
         <v>6150</v>
       </c>
-      <c r="K62" s="33">
+      <c r="K62" s="24">
         <f t="shared" si="16"/>
         <v>14800</v>
       </c>
-      <c r="L62" s="22">
+      <c r="L62" s="25">
         <v>0.08</v>
       </c>
-      <c r="M62" s="33">
+      <c r="M62" s="24">
         <f t="shared" si="19"/>
         <v>59700</v>
       </c>
@@ -7914,45 +7863,45 @@
         <f t="shared" si="4"/>
         <v>570</v>
       </c>
-      <c r="O62" s="2">
+      <c r="O62" s="23">
         <v>0.15</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="2">
         <f t="shared" si="7"/>
         <v>10106</v>
       </c>
-      <c r="Q62" s="33">
+      <c r="Q62" s="24">
         <f t="shared" si="17"/>
         <v>18756</v>
       </c>
-      <c r="R62" s="22">
+      <c r="R62" s="25">
         <v>0.08</v>
       </c>
-      <c r="S62" s="38">
+      <c r="S62" s="12">
         <f t="shared" si="9"/>
         <v>68500</v>
       </c>
-      <c r="T62" s="44">
+      <c r="T62" s="16">
         <f t="shared" si="14"/>
         <v>20500</v>
       </c>
-      <c r="U62" s="43"/>
+      <c r="U62" s="24"/>
     </row>
     <row r="63" spans="1:21">
-      <c r="A63" s="22"/>
+      <c r="A63" s="16"/>
       <c r="B63" s="1">
         <v>58</v>
       </c>
-      <c r="C63" s="23"/>
+      <c r="C63" s="1"/>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
         <v>1740</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <f t="shared" si="2"/>
         <v>1740</v>
       </c>
@@ -7964,21 +7913,21 @@
         <f t="shared" si="3"/>
         <v>348</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="23">
         <v>0.15</v>
       </c>
-      <c r="J63" s="3">
+      <c r="J63" s="2">
         <f t="shared" si="18"/>
         <v>6240</v>
       </c>
-      <c r="K63" s="33">
+      <c r="K63" s="24">
         <f t="shared" si="16"/>
         <v>15040</v>
       </c>
-      <c r="L63" s="22">
+      <c r="L63" s="25">
         <v>0.08</v>
       </c>
-      <c r="M63" s="33">
+      <c r="M63" s="24">
         <f t="shared" si="19"/>
         <v>59940</v>
       </c>
@@ -7986,45 +7935,45 @@
         <f t="shared" si="4"/>
         <v>580</v>
       </c>
-      <c r="O63" s="2">
+      <c r="O63" s="23">
         <v>0.15</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="2">
         <f t="shared" si="7"/>
         <v>10256</v>
       </c>
-      <c r="Q63" s="33">
+      <c r="Q63" s="24">
         <f t="shared" si="17"/>
         <v>19056</v>
       </c>
-      <c r="R63" s="22">
+      <c r="R63" s="25">
         <v>0.08</v>
       </c>
-      <c r="S63" s="38">
+      <c r="S63" s="12">
         <f t="shared" si="9"/>
         <v>68900</v>
       </c>
-      <c r="T63" s="42">
+      <c r="T63" s="16">
         <f t="shared" si="14"/>
         <v>20800</v>
       </c>
-      <c r="U63" s="43"/>
+      <c r="U63" s="24"/>
     </row>
     <row r="64" spans="1:21">
-      <c r="A64" s="22"/>
+      <c r="A64" s="16"/>
       <c r="B64" s="1">
         <v>59</v>
       </c>
-      <c r="C64" s="23"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f t="shared" si="2"/>
         <v>1770</v>
       </c>
@@ -8036,21 +7985,21 @@
         <f t="shared" si="3"/>
         <v>354</v>
       </c>
-      <c r="I64" s="3">
+      <c r="I64" s="23">
         <v>0.15</v>
       </c>
-      <c r="J64" s="3">
+      <c r="J64" s="2">
         <f t="shared" si="18"/>
         <v>6330</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="24">
         <f t="shared" si="16"/>
         <v>15280</v>
       </c>
-      <c r="L64" s="22">
+      <c r="L64" s="25">
         <v>0.08</v>
       </c>
-      <c r="M64" s="33">
+      <c r="M64" s="24">
         <f t="shared" si="19"/>
         <v>60180</v>
       </c>
@@ -8058,103 +8007,103 @@
         <f t="shared" si="4"/>
         <v>590</v>
       </c>
-      <c r="O64" s="2">
+      <c r="O64" s="23">
         <v>0.15</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="2">
         <f t="shared" si="7"/>
         <v>10406</v>
       </c>
-      <c r="Q64" s="33">
+      <c r="Q64" s="24">
         <f t="shared" si="17"/>
         <v>19356</v>
       </c>
-      <c r="R64" s="22">
+      <c r="R64" s="25">
         <v>0.08</v>
       </c>
-      <c r="S64" s="38">
+      <c r="S64" s="12">
         <f t="shared" si="9"/>
         <v>69300</v>
       </c>
-      <c r="T64" s="44">
+      <c r="T64" s="16">
         <f t="shared" si="14"/>
         <v>21100</v>
       </c>
-      <c r="U64" s="43"/>
+      <c r="U64" s="24"/>
     </row>
     <row r="65" s="11" customFormat="1" spans="1:21">
-      <c r="A65" s="24"/>
-      <c r="B65" s="25">
+      <c r="A65" s="19"/>
+      <c r="B65" s="20">
         <v>60</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="20"/>
       <c r="D65" s="11">
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="11">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="11">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="G65" s="48">
+      <c r="G65" s="32">
         <f t="shared" si="15"/>
         <v>9100</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="19">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I65" s="28">
         <v>0.15</v>
       </c>
-      <c r="J65" s="27">
+      <c r="J65" s="11">
         <f t="shared" si="18"/>
         <v>6420</v>
       </c>
-      <c r="K65" s="49">
+      <c r="K65" s="33">
         <f t="shared" si="16"/>
         <v>15520</v>
       </c>
-      <c r="L65" s="24">
+      <c r="L65" s="30">
         <v>0.08</v>
       </c>
-      <c r="M65" s="34">
+      <c r="M65" s="29">
         <f t="shared" si="19"/>
         <v>60420</v>
       </c>
-      <c r="N65" s="28">
+      <c r="N65" s="19">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="O65" s="11">
+      <c r="O65" s="28">
         <v>0.15</v>
       </c>
-      <c r="P65" s="27">
+      <c r="P65" s="11">
         <f t="shared" si="7"/>
         <v>10556</v>
       </c>
-      <c r="Q65" s="49">
+      <c r="Q65" s="33">
         <f t="shared" si="17"/>
         <v>19656</v>
       </c>
-      <c r="R65" s="24">
+      <c r="R65" s="30">
         <v>0.08</v>
       </c>
-      <c r="S65" s="50">
+      <c r="S65" s="32">
         <f t="shared" si="9"/>
         <v>69700</v>
       </c>
-      <c r="T65" s="51">
+      <c r="T65" s="19">
         <f t="shared" si="14"/>
         <v>21400</v>
       </c>
-      <c r="U65" s="52"/>
-    </row>
-    <row r="66" spans="8:20">
+      <c r="U65" s="29"/>
+    </row>
+    <row r="66" spans="8:19">
       <c r="H66" s="2" t="s">
         <v>20</v>
       </c>
@@ -8175,7 +8124,6 @@
       <c r="S66" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="T66" s="53"/>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="2" t="s">
@@ -8385,8 +8333,8 @@
   <sheetPr/>
   <dimension ref="A1:P102"/>
   <sheetViews>
-    <sheetView topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView topLeftCell="B61" workbookViewId="0">
+      <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8427,12 +8375,12 @@
       <c r="G2" s="1">
         <v>100</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="2:13">
       <c r="B3" s="2"/>
@@ -8488,23 +8436,23 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B64" si="0">A5*30</f>
         <v>30</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C64" si="1">$A5*30/60</f>
         <v>0.5</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D64" si="2">$B5</f>
         <v>30</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E64" si="3">$D5/3</f>
         <v>10</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <f t="shared" ref="F5:F64" si="4">$D5/5</f>
         <v>6</v>
       </c>
@@ -8528,23 +8476,23 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -8572,19 +8520,19 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -8608,23 +8556,23 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
@@ -8648,23 +8596,23 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
@@ -8688,23 +8636,23 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
@@ -8732,19 +8680,19 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -8772,19 +8720,19 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
@@ -8808,23 +8756,23 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="1"/>
         <v>4.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
@@ -8837,23 +8785,23 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
@@ -8861,13 +8809,13 @@
         <f>$G$2+A14*$G$3</f>
         <v>1100</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:16">
       <c r="A15" s="1">
@@ -8877,19 +8825,19 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="1"/>
         <v>5.5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <f t="shared" si="4"/>
         <v>66</v>
       </c>
@@ -8897,15 +8845,15 @@
         <f>$G$2+A15*$G$3</f>
         <v>1200</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="L15" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="6">
         <v>2</v>
       </c>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:16">
       <c r="A16" s="1">
@@ -8915,19 +8863,19 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <f t="shared" si="2"/>
         <v>360</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <f t="shared" si="4"/>
         <v>72</v>
       </c>
@@ -8935,19 +8883,19 @@
         <f>$G$2+A16*$G$3</f>
         <v>1300</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="O16" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="P16" s="8" t="s">
+      <c r="P16" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -8959,19 +8907,19 @@
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <f t="shared" si="2"/>
         <v>390</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
@@ -8979,22 +8927,22 @@
         <f>$G$2+A17*$G$3</f>
         <v>1400</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>1</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <f t="shared" ref="M17:M24" si="6">ROUND((L17*2)^$M$15/7-0.57,2)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="6">
         <f t="shared" ref="N17:N24" si="7">ROUND($M17*30,0)</f>
         <v>0</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="6">
         <f t="shared" ref="O17:O24" si="8">ROUND($M17*30/60,2)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="7">
         <f t="shared" ref="P17:P23" si="9">ROUND((O18-O17)*60,0)</f>
         <v>52</v>
       </c>
@@ -9003,23 +8951,23 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f t="shared" si="2"/>
         <v>420</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <f t="shared" si="3"/>
         <v>140</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <f t="shared" si="4"/>
         <v>84</v>
       </c>
@@ -9027,22 +8975,22 @@
         <f>$G$2+A18*$G$3</f>
         <v>1500</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <v>2</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="6">
         <f t="shared" si="6"/>
         <v>1.72</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="6">
         <f t="shared" si="7"/>
         <v>52</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="6">
         <f t="shared" si="8"/>
         <v>0.86</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P18" s="7">
         <f t="shared" si="9"/>
         <v>86</v>
       </c>
@@ -9055,19 +9003,19 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>450</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
@@ -9075,22 +9023,22 @@
         <f>$G$2+A19*$G$3</f>
         <v>1600</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="6">
         <f t="shared" si="6"/>
         <v>4.57</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="6">
         <f t="shared" si="7"/>
         <v>137</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="6">
         <f t="shared" si="8"/>
         <v>2.29</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="7">
         <f t="shared" si="9"/>
         <v>120</v>
       </c>
@@ -9103,19 +9051,19 @@
         <f t="shared" si="0"/>
         <v>480</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <f t="shared" si="2"/>
         <v>480</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
@@ -9123,22 +9071,22 @@
         <f>$G$2+A20*$G$3</f>
         <v>1700</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <v>4</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="6">
         <f t="shared" si="6"/>
         <v>8.57</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="6">
         <f t="shared" si="7"/>
         <v>257</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="6">
         <f t="shared" si="8"/>
         <v>4.29</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="7">
         <f t="shared" si="9"/>
         <v>154</v>
       </c>
@@ -9151,19 +9099,19 @@
         <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <f t="shared" si="2"/>
         <v>510</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <f t="shared" si="3"/>
         <v>170</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
@@ -9171,22 +9119,22 @@
         <f>$G$2+A21*$G$3</f>
         <v>1800</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>5</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <f t="shared" si="6"/>
         <v>13.72</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="6">
         <f t="shared" si="7"/>
         <v>412</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="6">
         <f t="shared" si="8"/>
         <v>6.86</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="7">
         <f t="shared" si="9"/>
         <v>188</v>
       </c>
@@ -9199,19 +9147,19 @@
         <f t="shared" si="0"/>
         <v>540</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>540</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <f t="shared" si="4"/>
         <v>108</v>
       </c>
@@ -9219,22 +9167,22 @@
         <f>$G$2+A22*$G$3</f>
         <v>1900</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <v>6</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="6">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="6">
         <f t="shared" si="8"/>
         <v>10</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="7">
         <f t="shared" si="9"/>
         <v>223</v>
       </c>
@@ -9247,19 +9195,19 @@
         <f t="shared" si="0"/>
         <v>570</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>570</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <f t="shared" si="3"/>
         <v>190</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <f t="shared" si="4"/>
         <v>114</v>
       </c>
@@ -9267,22 +9215,22 @@
         <f>$G$2+A23*$G$3</f>
         <v>2000</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <v>7</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="6">
         <f t="shared" si="6"/>
         <v>27.43</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="6">
         <f t="shared" si="7"/>
         <v>823</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="6">
         <f t="shared" si="8"/>
         <v>13.72</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="7">
         <f t="shared" si="9"/>
         <v>257</v>
       </c>
@@ -9291,23 +9239,23 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>600</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <f t="shared" si="2"/>
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
@@ -9315,22 +9263,22 @@
         <f>$G$2+A24*$G$3</f>
         <v>2100</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>8</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="6">
         <f t="shared" si="7"/>
         <v>1080</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="6">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="P24" s="7"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="1">
@@ -9340,19 +9288,19 @@
         <f t="shared" si="0"/>
         <v>630</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="1"/>
         <v>10.5</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>630</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <f t="shared" si="3"/>
         <v>210</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <f t="shared" si="4"/>
         <v>126</v>
       </c>
@@ -9369,19 +9317,19 @@
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>660</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <f t="shared" si="3"/>
         <v>220</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <f t="shared" si="4"/>
         <v>132</v>
       </c>
@@ -9398,19 +9346,19 @@
         <f t="shared" si="0"/>
         <v>690</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="1"/>
         <v>11.5</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>690</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <f t="shared" si="3"/>
         <v>230</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
@@ -9427,19 +9375,19 @@
         <f t="shared" si="0"/>
         <v>720</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <f t="shared" si="2"/>
         <v>720</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <f t="shared" si="3"/>
         <v>240</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
@@ -9460,19 +9408,19 @@
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>750</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <f t="shared" si="3"/>
         <v>250</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
@@ -9489,23 +9437,23 @@
       <c r="A30" s="1">
         <v>26</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>780</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <f t="shared" si="2"/>
         <v>780</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <f t="shared" si="3"/>
         <v>260</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
@@ -9522,23 +9470,23 @@
       <c r="A31" s="1">
         <v>27</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="3">
         <f t="shared" si="0"/>
         <v>810</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="1"/>
         <v>13.5</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <f t="shared" si="3"/>
         <v>270</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <f t="shared" si="4"/>
         <v>162</v>
       </c>
@@ -9559,19 +9507,19 @@
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <f t="shared" si="2"/>
         <v>840</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="2">
         <f t="shared" si="3"/>
         <v>280</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
@@ -9592,19 +9540,19 @@
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="1"/>
         <v>14.5</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <f t="shared" si="2"/>
         <v>870</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="2">
         <f t="shared" si="3"/>
         <v>290</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <f t="shared" si="4"/>
         <v>174</v>
       </c>
@@ -9621,19 +9569,19 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <f t="shared" si="2"/>
         <v>900</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="2">
         <f t="shared" si="3"/>
         <v>300</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
@@ -9653,19 +9601,19 @@
         <f t="shared" si="0"/>
         <v>930</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f t="shared" si="2"/>
         <v>930</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="2">
         <f t="shared" si="3"/>
         <v>310</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
@@ -9688,19 +9636,19 @@
         <f t="shared" si="0"/>
         <v>960</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <f t="shared" si="2"/>
         <v>960</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="2">
         <f t="shared" si="3"/>
         <v>320</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
@@ -9723,19 +9671,19 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="1"/>
         <v>16.5</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="2">
         <f t="shared" si="3"/>
         <v>330</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <f t="shared" si="4"/>
         <v>198</v>
       </c>
@@ -9746,7 +9694,7 @@
       <c r="L37" s="1">
         <v>10</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M37" s="8">
         <f t="shared" ref="M37:M66" si="10">ROUND(1/LOG($L37,$M$35)*1.2,2)</f>
         <v>0.36</v>
       </c>
@@ -9759,19 +9707,19 @@
         <f t="shared" si="0"/>
         <v>1020</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="2">
         <f t="shared" si="3"/>
         <v>340</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <f t="shared" si="4"/>
         <v>204</v>
       </c>
@@ -9782,7 +9730,7 @@
       <c r="L38" s="1">
         <v>20</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M38" s="8">
         <f t="shared" si="10"/>
         <v>0.28</v>
       </c>
@@ -9795,19 +9743,19 @@
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <f t="shared" si="2"/>
         <v>1050</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="2">
         <f t="shared" si="3"/>
         <v>350</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
@@ -9818,7 +9766,7 @@
       <c r="L39" s="1">
         <v>30</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M39" s="8">
         <f t="shared" si="10"/>
         <v>0.24</v>
       </c>
@@ -9827,23 +9775,23 @@
       <c r="A40" s="1">
         <v>36</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="3">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <f t="shared" si="2"/>
         <v>1080</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="2">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <f t="shared" si="4"/>
         <v>216</v>
       </c>
@@ -9854,7 +9802,7 @@
       <c r="L40" s="1">
         <v>40</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M40" s="8">
         <f t="shared" si="10"/>
         <v>0.23</v>
       </c>
@@ -9867,19 +9815,19 @@
         <f t="shared" si="0"/>
         <v>1110</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <f t="shared" si="2"/>
         <v>1110</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="2">
         <f t="shared" si="3"/>
         <v>370</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <f t="shared" si="4"/>
         <v>222</v>
       </c>
@@ -9890,7 +9838,7 @@
       <c r="L41" s="1">
         <v>50</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M41" s="8">
         <f t="shared" si="10"/>
         <v>0.21</v>
       </c>
@@ -9903,19 +9851,19 @@
         <f t="shared" si="0"/>
         <v>1140</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <f t="shared" si="2"/>
         <v>1140</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="2">
         <f t="shared" si="3"/>
         <v>380</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="2">
         <f t="shared" si="4"/>
         <v>228</v>
       </c>
@@ -9926,7 +9874,7 @@
       <c r="L42" s="1">
         <v>60</v>
       </c>
-      <c r="M42" s="1">
+      <c r="M42" s="8">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
@@ -9939,19 +9887,19 @@
         <f t="shared" si="0"/>
         <v>1170</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="2">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="2">
         <f t="shared" si="2"/>
         <v>1170</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="2">
         <f t="shared" si="3"/>
         <v>390</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="2">
         <f t="shared" si="4"/>
         <v>234</v>
       </c>
@@ -9962,7 +9910,7 @@
       <c r="L43" s="1">
         <v>70</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M43" s="8">
         <f t="shared" si="10"/>
         <v>0.2</v>
       </c>
@@ -9975,19 +9923,19 @@
         <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D44" s="2">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="2">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="2">
         <f t="shared" si="4"/>
         <v>240</v>
       </c>
@@ -9998,7 +9946,7 @@
       <c r="L44" s="1">
         <v>80</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M44" s="8">
         <f t="shared" si="10"/>
         <v>0.19</v>
       </c>
@@ -10011,19 +9959,19 @@
         <f t="shared" si="0"/>
         <v>1230</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="2">
         <f t="shared" si="1"/>
         <v>20.5</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D45" s="2">
         <f t="shared" si="2"/>
         <v>1230</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="2">
         <f t="shared" si="3"/>
         <v>410</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="2">
         <f t="shared" si="4"/>
         <v>246</v>
       </c>
@@ -10034,7 +9982,7 @@
       <c r="L45" s="1">
         <v>90</v>
       </c>
-      <c r="M45" s="1">
+      <c r="M45" s="8">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
@@ -10047,19 +9995,19 @@
         <f t="shared" si="0"/>
         <v>1260</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="2">
         <f t="shared" si="2"/>
         <v>1260</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="2">
         <f t="shared" si="3"/>
         <v>420</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="2">
         <f t="shared" si="4"/>
         <v>252</v>
       </c>
@@ -10070,7 +10018,7 @@
       <c r="L46" s="1">
         <v>100</v>
       </c>
-      <c r="M46" s="1">
+      <c r="M46" s="8">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
@@ -10083,19 +10031,19 @@
         <f t="shared" si="0"/>
         <v>1290</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="2">
         <f t="shared" si="1"/>
         <v>21.5</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="2">
         <f t="shared" si="2"/>
         <v>1290</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="2">
         <f t="shared" si="3"/>
         <v>430</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="2">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
@@ -10106,7 +10054,7 @@
       <c r="L47" s="1">
         <v>110</v>
       </c>
-      <c r="M47" s="1">
+      <c r="M47" s="8">
         <f t="shared" si="10"/>
         <v>0.18</v>
       </c>
@@ -10119,19 +10067,19 @@
         <f t="shared" si="0"/>
         <v>1320</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="2">
         <f t="shared" si="2"/>
         <v>1320</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="2">
         <f t="shared" si="3"/>
         <v>440</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="2">
         <f t="shared" si="4"/>
         <v>264</v>
       </c>
@@ -10142,7 +10090,7 @@
       <c r="L48" s="1">
         <v>120</v>
       </c>
-      <c r="M48" s="1">
+      <c r="M48" s="8">
         <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
@@ -10155,19 +10103,19 @@
         <f t="shared" si="0"/>
         <v>1350</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="2">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="2">
         <f t="shared" si="2"/>
         <v>1350</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="2">
         <f t="shared" si="3"/>
         <v>450</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="2">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
@@ -10178,7 +10126,7 @@
       <c r="L49" s="1">
         <v>130</v>
       </c>
-      <c r="M49" s="1">
+      <c r="M49" s="8">
         <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
@@ -10191,19 +10139,19 @@
         <f t="shared" si="0"/>
         <v>1380</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="2">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="D50" s="3">
+      <c r="D50" s="2">
         <f t="shared" si="2"/>
         <v>1380</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="2">
         <f t="shared" si="3"/>
         <v>460</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="2">
         <f t="shared" si="4"/>
         <v>276</v>
       </c>
@@ -10214,7 +10162,7 @@
       <c r="L50" s="1">
         <v>140</v>
       </c>
-      <c r="M50" s="1">
+      <c r="M50" s="8">
         <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
@@ -10227,19 +10175,19 @@
         <f t="shared" si="0"/>
         <v>1410</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="2">
         <f t="shared" si="1"/>
         <v>23.5</v>
       </c>
-      <c r="D51" s="3">
+      <c r="D51" s="2">
         <f t="shared" si="2"/>
         <v>1410</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="2">
         <f t="shared" si="3"/>
         <v>470</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="2">
         <f t="shared" si="4"/>
         <v>282</v>
       </c>
@@ -10250,7 +10198,7 @@
       <c r="L51" s="1">
         <v>150</v>
       </c>
-      <c r="M51" s="1">
+      <c r="M51" s="8">
         <f t="shared" si="10"/>
         <v>0.17</v>
       </c>
@@ -10263,19 +10211,19 @@
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="2">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="2">
         <f t="shared" si="2"/>
         <v>1440</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="2">
         <f t="shared" si="3"/>
         <v>480</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="2">
         <f t="shared" si="4"/>
         <v>288</v>
       </c>
@@ -10286,7 +10234,7 @@
       <c r="L52" s="1">
         <v>160</v>
       </c>
-      <c r="M52" s="1">
+      <c r="M52" s="8">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
@@ -10299,19 +10247,19 @@
         <f t="shared" si="0"/>
         <v>1470</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="2">
         <f t="shared" si="1"/>
         <v>24.5</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D53" s="2">
         <f t="shared" si="2"/>
         <v>1470</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="2">
         <f t="shared" si="3"/>
         <v>490</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="2">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
@@ -10322,7 +10270,7 @@
       <c r="L53" s="1">
         <v>170</v>
       </c>
-      <c r="M53" s="1">
+      <c r="M53" s="8">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
@@ -10335,19 +10283,19 @@
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="2">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="2">
         <f t="shared" si="3"/>
         <v>500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="2">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
@@ -10358,7 +10306,7 @@
       <c r="L54" s="1">
         <v>180</v>
       </c>
-      <c r="M54" s="1">
+      <c r="M54" s="8">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
@@ -10371,19 +10319,19 @@
         <f t="shared" si="0"/>
         <v>1530</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="2">
         <f t="shared" si="1"/>
         <v>25.5</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D55" s="2">
         <f t="shared" si="2"/>
         <v>1530</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="2">
         <f t="shared" si="3"/>
         <v>510</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="2">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
@@ -10394,7 +10342,7 @@
       <c r="L55" s="1">
         <v>190</v>
       </c>
-      <c r="M55" s="1">
+      <c r="M55" s="8">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
@@ -10407,19 +10355,19 @@
         <f t="shared" si="0"/>
         <v>1560</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="2">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D56" s="2">
         <f t="shared" si="2"/>
         <v>1560</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="2">
         <f t="shared" si="3"/>
         <v>520</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="2">
         <f t="shared" si="4"/>
         <v>312</v>
       </c>
@@ -10430,7 +10378,7 @@
       <c r="L56" s="1">
         <v>200</v>
       </c>
-      <c r="M56" s="1">
+      <c r="M56" s="8">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
@@ -10443,19 +10391,19 @@
         <f t="shared" si="0"/>
         <v>1590</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="2">
         <f t="shared" si="1"/>
         <v>26.5</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="2">
         <f t="shared" si="2"/>
         <v>1590</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="2">
         <f t="shared" si="3"/>
         <v>530</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="2">
         <f t="shared" si="4"/>
         <v>318</v>
       </c>
@@ -10466,7 +10414,7 @@
       <c r="L57" s="1">
         <v>210</v>
       </c>
-      <c r="M57" s="1">
+      <c r="M57" s="8">
         <f t="shared" si="10"/>
         <v>0.16</v>
       </c>
@@ -10479,19 +10427,19 @@
         <f t="shared" si="0"/>
         <v>1620</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="2">
         <f t="shared" si="2"/>
         <v>1620</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="2">
         <f t="shared" si="3"/>
         <v>540</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="2">
         <f t="shared" si="4"/>
         <v>324</v>
       </c>
@@ -10502,7 +10450,7 @@
       <c r="L58" s="1">
         <v>220</v>
       </c>
-      <c r="M58" s="1">
+      <c r="M58" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10515,19 +10463,19 @@
         <f t="shared" si="0"/>
         <v>1650</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="2">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="2">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <f t="shared" si="3"/>
         <v>550</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
@@ -10538,7 +10486,7 @@
       <c r="L59" s="1">
         <v>230</v>
       </c>
-      <c r="M59" s="1">
+      <c r="M59" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10551,19 +10499,19 @@
         <f t="shared" si="0"/>
         <v>1680</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="2">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="2">
         <f t="shared" si="2"/>
         <v>1680</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <f t="shared" si="3"/>
         <v>560</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f t="shared" si="4"/>
         <v>336</v>
       </c>
@@ -10574,7 +10522,7 @@
       <c r="L60" s="1">
         <v>240</v>
       </c>
-      <c r="M60" s="1">
+      <c r="M60" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10590,19 +10538,19 @@
         <f t="shared" si="0"/>
         <v>1710</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="2">
         <f t="shared" si="1"/>
         <v>28.5</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61" s="2">
         <f t="shared" si="2"/>
         <v>1710</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <f t="shared" si="3"/>
         <v>570</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f t="shared" si="4"/>
         <v>342</v>
       </c>
@@ -10613,7 +10561,7 @@
       <c r="L61" s="1">
         <v>250</v>
       </c>
-      <c r="M61" s="1">
+      <c r="M61" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10626,19 +10574,19 @@
         <f t="shared" si="0"/>
         <v>1740</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="2">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="2">
         <f t="shared" si="2"/>
         <v>1740</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <f t="shared" si="3"/>
         <v>580</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f t="shared" si="4"/>
         <v>348</v>
       </c>
@@ -10649,7 +10597,7 @@
       <c r="L62" s="1">
         <v>260</v>
       </c>
-      <c r="M62" s="1">
+      <c r="M62" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10662,19 +10610,19 @@
         <f t="shared" si="0"/>
         <v>1770</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="2">
         <f t="shared" si="1"/>
         <v>29.5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63" s="2">
         <f t="shared" si="2"/>
         <v>1770</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <f t="shared" si="3"/>
         <v>590</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
@@ -10685,7 +10633,7 @@
       <c r="L63" s="1">
         <v>270</v>
       </c>
-      <c r="M63" s="1">
+      <c r="M63" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10698,19 +10646,19 @@
         <f t="shared" si="0"/>
         <v>1800</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64" s="2">
         <f t="shared" si="2"/>
         <v>1800</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
@@ -10721,7 +10669,7 @@
       <c r="L64" s="1">
         <v>280</v>
       </c>
-      <c r="M64" s="1">
+      <c r="M64" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10735,7 +10683,7 @@
       <c r="L65" s="1">
         <v>290</v>
       </c>
-      <c r="M65" s="1">
+      <c r="M65" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10749,7 +10697,7 @@
       <c r="L66" s="1">
         <v>300</v>
       </c>
-      <c r="M66" s="1">
+      <c r="M66" s="8">
         <f t="shared" si="10"/>
         <v>0.15</v>
       </c>
@@ -10795,7 +10743,7 @@
       <c r="L73" s="1">
         <v>10</v>
       </c>
-      <c r="M73" s="1">
+      <c r="M73" s="8">
         <f>ROUND($M$69*(L73/264)^2+$M$70*(L73/176)+$M$71,2)</f>
         <v>0.24</v>
       </c>
@@ -10804,7 +10752,7 @@
       <c r="L74" s="1">
         <v>20</v>
       </c>
-      <c r="M74" s="1">
+      <c r="M74" s="8">
         <f t="shared" ref="M74:M102" si="11">ROUND($M$69*(L74/264)^2+$M$70*(L74/176)+$M$71,2)</f>
         <v>0.28</v>
       </c>
@@ -10813,7 +10761,7 @@
       <c r="L75" s="1">
         <v>30</v>
       </c>
-      <c r="M75" s="1">
+      <c r="M75" s="8">
         <f t="shared" si="11"/>
         <v>0.32</v>
       </c>
@@ -10822,7 +10770,7 @@
       <c r="L76" s="1">
         <v>40</v>
       </c>
-      <c r="M76" s="1">
+      <c r="M76" s="8">
         <f t="shared" si="11"/>
         <v>0.36</v>
       </c>
@@ -10831,7 +10779,7 @@
       <c r="L77" s="1">
         <v>50</v>
       </c>
-      <c r="M77" s="1">
+      <c r="M77" s="8">
         <f t="shared" si="11"/>
         <v>0.39</v>
       </c>
@@ -10840,7 +10788,7 @@
       <c r="L78" s="1">
         <v>60</v>
       </c>
-      <c r="M78" s="1">
+      <c r="M78" s="8">
         <f t="shared" si="11"/>
         <v>0.41</v>
       </c>
@@ -10849,7 +10797,7 @@
       <c r="L79" s="1">
         <v>70</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79" s="8">
         <f t="shared" si="11"/>
         <v>0.44</v>
       </c>
@@ -10858,7 +10806,7 @@
       <c r="L80" s="1">
         <v>80</v>
       </c>
-      <c r="M80" s="1">
+      <c r="M80" s="8">
         <f t="shared" si="11"/>
         <v>0.46</v>
       </c>
@@ -10867,7 +10815,7 @@
       <c r="L81" s="1">
         <v>90</v>
       </c>
-      <c r="M81" s="1">
+      <c r="M81" s="8">
         <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
@@ -10876,7 +10824,7 @@
       <c r="L82" s="1">
         <v>100</v>
       </c>
-      <c r="M82" s="1">
+      <c r="M82" s="8">
         <f t="shared" si="11"/>
         <v>0.49</v>
       </c>
@@ -10885,7 +10833,7 @@
       <c r="L83" s="1">
         <v>110</v>
       </c>
-      <c r="M83" s="1">
+      <c r="M83" s="8">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
@@ -10894,7 +10842,7 @@
       <c r="L84" s="1">
         <v>120</v>
       </c>
-      <c r="M84" s="1">
+      <c r="M84" s="8">
         <f t="shared" si="11"/>
         <v>0.51</v>
       </c>
@@ -10903,7 +10851,7 @@
       <c r="L85" s="1">
         <v>130</v>
       </c>
-      <c r="M85" s="1">
+      <c r="M85" s="8">
         <f t="shared" si="11"/>
         <v>0.51</v>
       </c>
@@ -10912,7 +10860,7 @@
       <c r="L86" s="1">
         <v>140</v>
       </c>
-      <c r="M86" s="1">
+      <c r="M86" s="8">
         <f t="shared" si="11"/>
         <v>0.51</v>
       </c>
@@ -10921,7 +10869,7 @@
       <c r="L87" s="1">
         <v>150</v>
       </c>
-      <c r="M87" s="1">
+      <c r="M87" s="8">
         <f t="shared" si="11"/>
         <v>0.51</v>
       </c>
@@ -10930,7 +10878,7 @@
       <c r="L88" s="1">
         <v>160</v>
       </c>
-      <c r="M88" s="1">
+      <c r="M88" s="8">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
@@ -10939,7 +10887,7 @@
       <c r="L89" s="1">
         <v>170</v>
       </c>
-      <c r="M89" s="1">
+      <c r="M89" s="8">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
@@ -10948,7 +10896,7 @@
       <c r="L90" s="1">
         <v>180</v>
       </c>
-      <c r="M90" s="1">
+      <c r="M90" s="8">
         <f t="shared" si="11"/>
         <v>0.48</v>
       </c>
@@ -10957,7 +10905,7 @@
       <c r="L91" s="1">
         <v>190</v>
       </c>
-      <c r="M91" s="1">
+      <c r="M91" s="8">
         <f t="shared" si="11"/>
         <v>0.47</v>
       </c>
@@ -10966,7 +10914,7 @@
       <c r="L92" s="1">
         <v>200</v>
       </c>
-      <c r="M92" s="1">
+      <c r="M92" s="8">
         <f t="shared" si="11"/>
         <v>0.45</v>
       </c>
@@ -10975,7 +10923,7 @@
       <c r="L93" s="1">
         <v>210</v>
       </c>
-      <c r="M93" s="1">
+      <c r="M93" s="8">
         <f t="shared" si="11"/>
         <v>0.43</v>
       </c>
@@ -10984,7 +10932,7 @@
       <c r="L94" s="1">
         <v>220</v>
       </c>
-      <c r="M94" s="1">
+      <c r="M94" s="8">
         <f t="shared" si="11"/>
         <v>0.4</v>
       </c>
@@ -10993,7 +10941,7 @@
       <c r="L95" s="1">
         <v>230</v>
       </c>
-      <c r="M95" s="1">
+      <c r="M95" s="8">
         <f t="shared" si="11"/>
         <v>0.37</v>
       </c>
@@ -11002,7 +10950,7 @@
       <c r="L96" s="1">
         <v>240</v>
       </c>
-      <c r="M96" s="1">
+      <c r="M96" s="8">
         <f t="shared" si="11"/>
         <v>0.34</v>
       </c>
@@ -11011,7 +10959,7 @@
       <c r="L97" s="1">
         <v>250</v>
       </c>
-      <c r="M97" s="1">
+      <c r="M97" s="8">
         <f t="shared" si="11"/>
         <v>0.31</v>
       </c>
@@ -11020,7 +10968,7 @@
       <c r="L98" s="1">
         <v>260</v>
       </c>
-      <c r="M98" s="1">
+      <c r="M98" s="8">
         <f t="shared" si="11"/>
         <v>0.27</v>
       </c>
@@ -11029,7 +10977,7 @@
       <c r="L99" s="1">
         <v>270</v>
       </c>
-      <c r="M99" s="1">
+      <c r="M99" s="8">
         <f t="shared" si="11"/>
         <v>0.22</v>
       </c>
@@ -11038,7 +10986,7 @@
       <c r="L100" s="1">
         <v>280</v>
       </c>
-      <c r="M100" s="1">
+      <c r="M100" s="8">
         <f t="shared" si="11"/>
         <v>0.18</v>
       </c>
@@ -11047,7 +10995,7 @@
       <c r="L101" s="1">
         <v>290</v>
       </c>
-      <c r="M101" s="1">
+      <c r="M101" s="8">
         <f t="shared" si="11"/>
         <v>0.13</v>
       </c>
@@ -11056,7 +11004,7 @@
       <c r="L102" s="1">
         <v>300</v>
       </c>
-      <c r="M102" s="1">
+      <c r="M102" s="8">
         <f t="shared" si="11"/>
         <v>0.08</v>
       </c>
